--- a/data_capture/excels/VAMO3_SA_dados.xlsx
+++ b/data_capture/excels/VAMO3_SA_dados.xlsx
@@ -967,7 +967,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1069"/>
+  <dimension ref="A1:H1071"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1056,16 +1056,16 @@
         <v>44231</v>
       </c>
       <c r="B4">
-        <v>7.102391085648317</v>
+        <v>7.102389648158849</v>
       </c>
       <c r="C4">
-        <v>7.197204504275998</v>
+        <v>7.197203047596754</v>
       </c>
       <c r="D4">
-        <v>6.986029390024053</v>
+        <v>6.986027976085627</v>
       </c>
       <c r="E4">
-        <v>7.067914009094238</v>
+        <v>7.067912578582764</v>
       </c>
       <c r="F4">
         <v>3650229</v>
@@ -1134,16 +1134,16 @@
         <v>44236</v>
       </c>
       <c r="B7">
-        <v>7.457940835113196</v>
+        <v>7.457941808474093</v>
       </c>
       <c r="C7">
-        <v>7.56137371749157</v>
+        <v>7.56137470435184</v>
       </c>
       <c r="D7">
-        <v>7.136868050905641</v>
+        <v>7.136868982362252</v>
       </c>
       <c r="E7">
-        <v>7.307101249694824</v>
+        <v>7.307102203369141</v>
       </c>
       <c r="F7">
         <v>1374461</v>
@@ -1160,16 +1160,16 @@
         <v>44237</v>
       </c>
       <c r="B8">
-        <v>7.369591880418674</v>
+        <v>7.369591386242008</v>
       </c>
       <c r="C8">
-        <v>7.369591880418674</v>
+        <v>7.369591386242008</v>
       </c>
       <c r="D8">
-        <v>6.92784764972072</v>
+        <v>6.927847185165734</v>
       </c>
       <c r="E8">
-        <v>7.111010074615479</v>
+        <v>7.11100959777832</v>
       </c>
       <c r="F8">
         <v>3511567</v>
@@ -1186,16 +1186,16 @@
         <v>44238</v>
       </c>
       <c r="B9">
-        <v>7.111009569920894</v>
+        <v>7.111010044314201</v>
       </c>
       <c r="C9">
-        <v>7.244610201763859</v>
+        <v>7.24461068507</v>
       </c>
       <c r="D9">
-        <v>7.031279623045479</v>
+        <v>7.031280092119801</v>
       </c>
       <c r="E9">
-        <v>7.147642135620117</v>
+        <v>7.147642612457275</v>
       </c>
       <c r="F9">
         <v>1655030</v>
@@ -1212,16 +1212,16 @@
         <v>44239</v>
       </c>
       <c r="B10">
-        <v>7.132558590581314</v>
+        <v>7.132558119156304</v>
       </c>
       <c r="C10">
-        <v>7.384676422150198</v>
+        <v>7.38467593406151</v>
       </c>
       <c r="D10">
-        <v>7.095926021047202</v>
+        <v>7.095925552043414</v>
       </c>
       <c r="E10">
-        <v>7.214443206787109</v>
+        <v>7.214442729949951</v>
       </c>
       <c r="F10">
         <v>649929</v>
@@ -1290,16 +1290,16 @@
         <v>44246</v>
       </c>
       <c r="B13">
-        <v>7.348042936699575</v>
+        <v>7.348043852764202</v>
       </c>
       <c r="C13">
-        <v>7.796252359175992</v>
+        <v>7.796253331117919</v>
       </c>
       <c r="D13">
-        <v>7.330804817775364</v>
+        <v>7.330805731690952</v>
       </c>
       <c r="E13">
-        <v>7.649722099304199</v>
+        <v>7.649723052978516</v>
       </c>
       <c r="F13">
         <v>1995604</v>
@@ -1368,16 +1368,16 @@
         <v>44251</v>
       </c>
       <c r="B16">
-        <v>7.647567193992751</v>
+        <v>7.647568648687735</v>
       </c>
       <c r="C16">
-        <v>7.755309379794721</v>
+        <v>7.755310854984068</v>
       </c>
       <c r="D16">
-        <v>7.296325885226016</v>
+        <v>7.296327273109039</v>
       </c>
       <c r="E16">
-        <v>7.520430564880371</v>
+        <v>7.520431995391846</v>
       </c>
       <c r="F16">
         <v>1445414</v>
@@ -1394,16 +1394,16 @@
         <v>44252</v>
       </c>
       <c r="B17">
-        <v>7.554910543987981</v>
+        <v>7.554910052284683</v>
       </c>
       <c r="C17">
-        <v>7.595852435886842</v>
+        <v>7.595851941518884</v>
       </c>
       <c r="D17">
-        <v>7.128249337748066</v>
+        <v>7.128248873813558</v>
       </c>
       <c r="E17">
-        <v>7.32649564743042</v>
+        <v>7.326495170593262</v>
       </c>
       <c r="F17">
         <v>1264991</v>
@@ -1420,16 +1420,16 @@
         <v>44253</v>
       </c>
       <c r="B18">
-        <v>7.345887942356928</v>
+        <v>7.345888413527346</v>
       </c>
       <c r="C18">
-        <v>7.677735672712229</v>
+        <v>7.677736165167594</v>
       </c>
       <c r="D18">
-        <v>7.014041045203721</v>
+        <v>7.014041495089246</v>
       </c>
       <c r="E18">
-        <v>7.434236526489258</v>
+        <v>7.434237003326416</v>
       </c>
       <c r="F18">
         <v>1865862</v>
@@ -1472,16 +1472,16 @@
         <v>44257</v>
       </c>
       <c r="B20">
-        <v>7.188584672724187</v>
+        <v>7.188584207462777</v>
       </c>
       <c r="C20">
-        <v>7.367437362670898</v>
+        <v>7.36743688583374</v>
       </c>
       <c r="D20">
-        <v>6.895524953838304</v>
+        <v>6.895524507544381</v>
       </c>
       <c r="E20">
-        <v>7.367437362670898</v>
+        <v>7.36743688583374</v>
       </c>
       <c r="F20">
         <v>1173360</v>
@@ -1498,16 +1498,16 @@
         <v>44258</v>
       </c>
       <c r="B21">
-        <v>7.296326950199377</v>
+        <v>7.296327428590644</v>
       </c>
       <c r="C21">
-        <v>7.296326950199377</v>
+        <v>7.296327428590644</v>
       </c>
       <c r="D21">
-        <v>7.078687053215063</v>
+        <v>7.078687517336543</v>
       </c>
       <c r="E21">
-        <v>7.272624015808105</v>
+        <v>7.272624492645264</v>
       </c>
       <c r="F21">
         <v>1419466</v>
@@ -1524,16 +1524,16 @@
         <v>44259</v>
       </c>
       <c r="B22">
-        <v>7.304947370978625</v>
+        <v>7.304946895543913</v>
       </c>
       <c r="C22">
-        <v>7.412689586439846</v>
+        <v>7.412689103992848</v>
       </c>
       <c r="D22">
-        <v>7.149798447402106</v>
+        <v>7.149797982065097</v>
       </c>
       <c r="E22">
-        <v>7.32649564743042</v>
+        <v>7.326495170593262</v>
       </c>
       <c r="F22">
         <v>757778</v>
@@ -1550,16 +1550,16 @@
         <v>44260</v>
       </c>
       <c r="B23">
-        <v>7.304947134178427</v>
+        <v>7.304946650492619</v>
       </c>
       <c r="C23">
-        <v>7.365283472770709</v>
+        <v>7.365282985089824</v>
       </c>
       <c r="D23">
-        <v>7.199358749942488</v>
+        <v>7.199358273248052</v>
       </c>
       <c r="E23">
-        <v>7.20151424407959</v>
+        <v>7.201513767242432</v>
       </c>
       <c r="F23">
         <v>1309995</v>
@@ -1576,16 +1576,16 @@
         <v>44263</v>
       </c>
       <c r="B24">
-        <v>7.20151303802527</v>
+        <v>7.201514043762008</v>
       </c>
       <c r="C24">
-        <v>7.20151303802527</v>
+        <v>7.201514043762008</v>
       </c>
       <c r="D24">
-        <v>6.828723430633545</v>
+        <v>6.828724384307861</v>
       </c>
       <c r="E24">
-        <v>6.828723430633545</v>
+        <v>6.828724384307861</v>
       </c>
       <c r="F24">
         <v>1015642</v>
@@ -1654,16 +1654,16 @@
         <v>44266</v>
       </c>
       <c r="B27">
-        <v>6.453780106608605</v>
+        <v>6.453779657087861</v>
       </c>
       <c r="C27">
-        <v>6.845962524414062</v>
+        <v>6.845962047576904</v>
       </c>
       <c r="D27">
-        <v>6.378359898137004</v>
+        <v>6.378359453869452</v>
       </c>
       <c r="E27">
-        <v>6.845962524414062</v>
+        <v>6.845962047576904</v>
       </c>
       <c r="F27">
         <v>2230763</v>
@@ -1680,16 +1680,16 @@
         <v>44267</v>
       </c>
       <c r="B28">
-        <v>6.822259563593404</v>
+        <v>6.822260036991488</v>
       </c>
       <c r="C28">
-        <v>7.078687104930371</v>
+        <v>7.078687596122018</v>
       </c>
       <c r="D28">
-        <v>6.626167522240597</v>
+        <v>6.626167982031812</v>
       </c>
       <c r="E28">
-        <v>6.87182092666626</v>
+        <v>6.871821403503418</v>
       </c>
       <c r="F28">
         <v>3263434</v>
@@ -1706,16 +1706,16 @@
         <v>44270</v>
       </c>
       <c r="B29">
-        <v>6.84380899983525</v>
+        <v>6.843808547765166</v>
       </c>
       <c r="C29">
-        <v>7.315721413831282</v>
+        <v>7.315720930588866</v>
       </c>
       <c r="D29">
-        <v>6.84380899983525</v>
+        <v>6.843808547765166</v>
       </c>
       <c r="E29">
-        <v>7.218753337860107</v>
+        <v>7.218752861022949</v>
       </c>
       <c r="F29">
         <v>2428215</v>
@@ -1758,16 +1758,16 @@
         <v>44272</v>
       </c>
       <c r="B31">
-        <v>7.585075736915885</v>
+        <v>7.585076203156627</v>
       </c>
       <c r="C31">
-        <v>7.843658328252798</v>
+        <v>7.843658810388138</v>
       </c>
       <c r="D31">
-        <v>7.477333545993541</v>
+        <v>7.477334005611567</v>
       </c>
       <c r="E31">
-        <v>7.757464408874512</v>
+        <v>7.75746488571167</v>
       </c>
       <c r="F31">
         <v>5070506</v>
@@ -1784,16 +1784,16 @@
         <v>44273</v>
       </c>
       <c r="B32">
-        <v>7.800562383904612</v>
+        <v>7.800562861401289</v>
       </c>
       <c r="C32">
-        <v>8.106551728729865</v>
+        <v>8.106552224957101</v>
       </c>
       <c r="D32">
-        <v>7.656187604933394</v>
+        <v>7.656188073592441</v>
       </c>
       <c r="E32">
-        <v>7.789788246154785</v>
+        <v>7.789788722991943</v>
       </c>
       <c r="F32">
         <v>3661176</v>
@@ -1810,16 +1810,16 @@
         <v>44274</v>
       </c>
       <c r="B33">
-        <v>7.800561917030273</v>
+        <v>7.800562399195162</v>
       </c>
       <c r="C33">
-        <v>7.983724747421414</v>
+        <v>7.983725240907883</v>
       </c>
       <c r="D33">
-        <v>7.626018562963547</v>
+        <v>7.626019034339639</v>
       </c>
       <c r="E33">
-        <v>7.71436882019043</v>
+        <v>7.714369297027588</v>
       </c>
       <c r="F33">
         <v>2872989</v>
@@ -1836,16 +1836,16 @@
         <v>44277</v>
       </c>
       <c r="B34">
-        <v>7.712212372070346</v>
+        <v>7.712212846125944</v>
       </c>
       <c r="C34">
-        <v>8.013891506495375</v>
+        <v>8.013891999094639</v>
       </c>
       <c r="D34">
-        <v>7.391139626615255</v>
+        <v>7.391140080935099</v>
       </c>
       <c r="E34">
-        <v>7.757464408874512</v>
+        <v>7.75746488571167</v>
       </c>
       <c r="F34">
         <v>5377429</v>
@@ -1862,16 +1862,16 @@
         <v>44278</v>
       </c>
       <c r="B35">
-        <v>7.710058665427143</v>
+        <v>7.710059141997884</v>
       </c>
       <c r="C35">
-        <v>7.757465368610351</v>
+        <v>7.757465848111375</v>
       </c>
       <c r="D35">
-        <v>7.632484211709556</v>
+        <v>7.6324846834853</v>
       </c>
       <c r="E35">
-        <v>7.71436882019043</v>
+        <v>7.714369297027588</v>
       </c>
       <c r="F35">
         <v>638577</v>
@@ -1940,16 +1940,16 @@
         <v>44281</v>
       </c>
       <c r="B38">
-        <v>7.925544443994277</v>
+        <v>7.925543954240796</v>
       </c>
       <c r="C38">
-        <v>7.994499426058324</v>
+        <v>7.994498932043817</v>
       </c>
       <c r="D38">
-        <v>7.651877510260179</v>
+        <v>7.651877037417754</v>
       </c>
       <c r="E38">
-        <v>7.716523170471191</v>
+        <v>7.716522693634033</v>
       </c>
       <c r="F38">
         <v>2604179</v>
@@ -1966,16 +1966,16 @@
         <v>44284</v>
       </c>
       <c r="B39">
-        <v>7.768239417177417</v>
+        <v>7.768239916160879</v>
       </c>
       <c r="C39">
-        <v>7.865207483219212</v>
+        <v>7.865207988431301</v>
       </c>
       <c r="D39">
-        <v>7.423462867736816</v>
+        <v>7.423463344573975</v>
       </c>
       <c r="E39">
-        <v>7.423462867736816</v>
+        <v>7.423463344573975</v>
       </c>
       <c r="F39">
         <v>3953908</v>
@@ -1992,16 +1992,16 @@
         <v>44285</v>
       </c>
       <c r="B40">
-        <v>7.449322156329246</v>
+        <v>7.449321671498055</v>
       </c>
       <c r="C40">
-        <v>7.574303326232801</v>
+        <v>7.574302833267344</v>
       </c>
       <c r="D40">
-        <v>7.32649564743042</v>
+        <v>7.326495170593262</v>
       </c>
       <c r="E40">
-        <v>7.32649564743042</v>
+        <v>7.326495170593262</v>
       </c>
       <c r="F40">
         <v>1472174</v>
@@ -2018,16 +2018,16 @@
         <v>44286</v>
       </c>
       <c r="B41">
-        <v>7.416998638420477</v>
+        <v>7.416999107355777</v>
       </c>
       <c r="C41">
-        <v>7.574302199603828</v>
+        <v>7.574302678484552</v>
       </c>
       <c r="D41">
-        <v>7.182119793785448</v>
+        <v>7.182120247870674</v>
       </c>
       <c r="E41">
-        <v>7.541979789733887</v>
+        <v>7.541980266571045</v>
       </c>
       <c r="F41">
         <v>2544984</v>
@@ -2044,16 +2044,16 @@
         <v>44287</v>
       </c>
       <c r="B42">
-        <v>7.5527539263572</v>
+        <v>7.552754403875547</v>
       </c>
       <c r="C42">
-        <v>7.722987118050225</v>
+        <v>7.722987606331463</v>
       </c>
       <c r="D42">
-        <v>7.360972461417548</v>
+        <v>7.360972926810627</v>
       </c>
       <c r="E42">
-        <v>7.541979789733887</v>
+        <v>7.541980266571045</v>
       </c>
       <c r="F42">
         <v>877384</v>
@@ -2070,16 +2070,16 @@
         <v>44291</v>
       </c>
       <c r="B43">
-        <v>7.595850344902354</v>
+        <v>7.595851789759931</v>
       </c>
       <c r="C43">
-        <v>7.595850344902354</v>
+        <v>7.595851789759931</v>
       </c>
       <c r="D43">
-        <v>7.451474766093176</v>
+        <v>7.451476183488106</v>
       </c>
       <c r="E43">
-        <v>7.520430564880371</v>
+        <v>7.520431995391846</v>
       </c>
       <c r="F43">
         <v>1080107</v>
@@ -2122,16 +2122,16 @@
         <v>44293</v>
       </c>
       <c r="B45">
-        <v>7.404068778239347</v>
+        <v>7.404069253141524</v>
       </c>
       <c r="C45">
-        <v>7.582921440323504</v>
+        <v>7.582921926697417</v>
       </c>
       <c r="D45">
-        <v>7.335113806067824</v>
+        <v>7.335114276547181</v>
       </c>
       <c r="E45">
-        <v>7.434236526489258</v>
+        <v>7.434237003326416</v>
       </c>
       <c r="F45">
         <v>1401221</v>
@@ -2148,16 +2148,16 @@
         <v>44294</v>
       </c>
       <c r="B46">
-        <v>7.434237534399443</v>
+        <v>7.434237989472237</v>
       </c>
       <c r="C46">
-        <v>7.994499363008129</v>
+        <v>7.994499852376291</v>
       </c>
       <c r="D46">
-        <v>7.406225276171218</v>
+        <v>7.406225729529293</v>
       </c>
       <c r="E46">
-        <v>7.789788246154785</v>
+        <v>7.789788722991943</v>
       </c>
       <c r="F46">
         <v>2111967</v>
@@ -2174,16 +2174,16 @@
         <v>44295</v>
       </c>
       <c r="B47">
-        <v>7.796252222189853</v>
+        <v>7.796253168799933</v>
       </c>
       <c r="C47">
-        <v>8.0806924276703</v>
+        <v>8.080693408816714</v>
       </c>
       <c r="D47">
-        <v>7.671270238070954</v>
+        <v>7.671271169505895</v>
       </c>
       <c r="E47">
-        <v>7.854433059692383</v>
+        <v>7.854434013366699</v>
       </c>
       <c r="F47">
         <v>1442171</v>
@@ -2252,16 +2252,16 @@
         <v>44300</v>
       </c>
       <c r="B50">
-        <v>7.992344154388163</v>
+        <v>7.992345097132827</v>
       </c>
       <c r="C50">
-        <v>8.085002899169922</v>
+        <v>8.085003852844238</v>
       </c>
       <c r="D50">
-        <v>7.716522580804751</v>
+        <v>7.716523491014616</v>
       </c>
       <c r="E50">
-        <v>8.085002899169922</v>
+        <v>8.085003852844238</v>
       </c>
       <c r="F50">
         <v>2026013</v>
@@ -2356,16 +2356,16 @@
         <v>44306</v>
       </c>
       <c r="B54">
-        <v>8.423314572724044</v>
+        <v>8.423315527619753</v>
       </c>
       <c r="C54">
-        <v>8.462100965761657</v>
+        <v>8.462101925054325</v>
       </c>
       <c r="D54">
-        <v>8.291867769175097</v>
+        <v>8.291868709169549</v>
       </c>
       <c r="E54">
-        <v>8.412540435791016</v>
+        <v>8.412541389465332</v>
       </c>
       <c r="F54">
         <v>282595</v>
@@ -2382,16 +2382,16 @@
         <v>44308</v>
       </c>
       <c r="B55">
-        <v>8.477184006770004</v>
+        <v>8.477184969251963</v>
       </c>
       <c r="C55">
-        <v>8.591391841096433</v>
+        <v>8.591392816545312</v>
       </c>
       <c r="D55">
-        <v>8.276783089695217</v>
+        <v>8.27678402942407</v>
       </c>
       <c r="E55">
-        <v>8.399609565734863</v>
+        <v>8.39961051940918</v>
       </c>
       <c r="F55">
         <v>608979</v>
@@ -2434,16 +2434,16 @@
         <v>44312</v>
       </c>
       <c r="B57">
-        <v>8.401766127678773</v>
+        <v>8.401767106198847</v>
       </c>
       <c r="C57">
-        <v>8.403919955178923</v>
+        <v>8.403920933949845</v>
       </c>
       <c r="D57">
-        <v>8.147492835150489</v>
+        <v>8.147493784056371</v>
       </c>
       <c r="E57">
-        <v>8.188435554504395</v>
+        <v>8.188436508178711</v>
       </c>
       <c r="F57">
         <v>1270667</v>
@@ -2460,16 +2460,16 @@
         <v>44313</v>
       </c>
       <c r="B58">
-        <v>8.209985154851564</v>
+        <v>8.209984214991481</v>
       </c>
       <c r="C58">
-        <v>8.399611991342514</v>
+        <v>8.399611029774391</v>
       </c>
       <c r="D58">
-        <v>8.149649646223446</v>
+        <v>8.149648713270434</v>
       </c>
       <c r="E58">
-        <v>8.330657005310059</v>
+        <v>8.330656051635742</v>
       </c>
       <c r="F58">
         <v>2786224</v>
@@ -2538,16 +2538,16 @@
         <v>44316</v>
       </c>
       <c r="B61">
-        <v>8.806878334538768</v>
+        <v>8.806880208417226</v>
       </c>
       <c r="C61">
-        <v>8.964181900024414</v>
+        <v>8.964183807373047</v>
       </c>
       <c r="D61">
-        <v>8.806878334538768</v>
+        <v>8.806880208417226</v>
       </c>
       <c r="E61">
-        <v>8.964181900024414</v>
+        <v>8.964183807373047</v>
       </c>
       <c r="F61">
         <v>3200590</v>
@@ -2616,16 +2616,16 @@
         <v>44321</v>
       </c>
       <c r="B64">
-        <v>9.543836129217599</v>
+        <v>9.543837035617489</v>
       </c>
       <c r="C64">
-        <v>10.25709213345489</v>
+        <v>10.25709310759433</v>
       </c>
       <c r="D64">
-        <v>9.51797853480576</v>
+        <v>9.517979438749895</v>
       </c>
       <c r="E64">
-        <v>10.04160690307617</v>
+        <v>10.04160785675049</v>
       </c>
       <c r="F64">
         <v>3818084</v>
@@ -2642,16 +2642,16 @@
         <v>44322</v>
       </c>
       <c r="B65">
-        <v>10.04160767021572</v>
+        <v>10.04160862573538</v>
       </c>
       <c r="C65">
-        <v>10.04160767021572</v>
+        <v>10.04160862573538</v>
       </c>
       <c r="D65">
-        <v>9.789489856423613</v>
+        <v>9.789490787952737</v>
       </c>
       <c r="E65">
-        <v>10.02221488952637</v>
+        <v>10.02221584320068</v>
       </c>
       <c r="F65">
         <v>8042425</v>
@@ -2668,16 +2668,16 @@
         <v>44323</v>
       </c>
       <c r="B66">
-        <v>10.08685905552379</v>
+        <v>10.08686000534285</v>
       </c>
       <c r="C66">
-        <v>10.31742857954767</v>
+        <v>10.31742955107809</v>
       </c>
       <c r="D66">
-        <v>9.806729002791148</v>
+        <v>9.806729926232043</v>
       </c>
       <c r="E66">
-        <v>10.12780094146729</v>
+        <v>10.1278018951416</v>
       </c>
       <c r="F66">
         <v>7085572</v>
@@ -2694,16 +2694,16 @@
         <v>44326</v>
       </c>
       <c r="B67">
-        <v>10.1278018890842</v>
+        <v>10.12780088589063</v>
       </c>
       <c r="C67">
-        <v>10.14719633672707</v>
+        <v>10.14719533161241</v>
       </c>
       <c r="D67">
-        <v>9.498585917006658</v>
+        <v>9.498584976139091</v>
       </c>
       <c r="E67">
-        <v>9.627877235412598</v>
+        <v>9.627876281738281</v>
       </c>
       <c r="F67">
         <v>3466157</v>
@@ -2720,16 +2720,16 @@
         <v>44327</v>
       </c>
       <c r="B68">
-        <v>9.539527122962124</v>
+        <v>9.539528044576761</v>
       </c>
       <c r="C68">
-        <v>9.899387096536548</v>
+        <v>9.899388052917292</v>
       </c>
       <c r="D68">
-        <v>9.201215421294581</v>
+        <v>9.201216310224892</v>
       </c>
       <c r="E68">
-        <v>9.871373176574707</v>
+        <v>9.871374130249023</v>
       </c>
       <c r="F68">
         <v>2188597</v>
@@ -2772,16 +2772,16 @@
         <v>44329</v>
       </c>
       <c r="B70">
-        <v>9.808883753402259</v>
+        <v>9.808884697330374</v>
       </c>
       <c r="C70">
-        <v>9.955414012988983</v>
+        <v>9.955414971017992</v>
       </c>
       <c r="D70">
-        <v>9.739928778233164</v>
+        <v>9.739929715525607</v>
       </c>
       <c r="E70">
-        <v>9.910161972045898</v>
+        <v>9.910162925720215</v>
       </c>
       <c r="F70">
         <v>2493897</v>
@@ -2824,16 +2824,16 @@
         <v>44333</v>
       </c>
       <c r="B72">
-        <v>9.867065232121334</v>
+        <v>9.867064282800763</v>
       </c>
       <c r="C72">
-        <v>10.03083362122622</v>
+        <v>10.03083265614932</v>
       </c>
       <c r="D72">
-        <v>9.608483433555378</v>
+        <v>9.60848250911323</v>
       </c>
       <c r="E72">
-        <v>9.912317276000977</v>
+        <v>9.91231632232666</v>
       </c>
       <c r="F72">
         <v>1884107</v>
@@ -2850,16 +2850,16 @@
         <v>44334</v>
       </c>
       <c r="B73">
-        <v>9.910162615150085</v>
+        <v>9.910161661683071</v>
       </c>
       <c r="C73">
-        <v>9.920936752606726</v>
+        <v>9.920935798103123</v>
       </c>
       <c r="D73">
-        <v>9.707606164718229</v>
+        <v>9.707605230739381</v>
       </c>
       <c r="E73">
-        <v>9.912317276000977</v>
+        <v>9.91231632232666</v>
       </c>
       <c r="F73">
         <v>1385003</v>
@@ -2876,16 +2876,16 @@
         <v>44335</v>
       </c>
       <c r="B74">
-        <v>9.93386500655714</v>
+        <v>9.933865946167929</v>
       </c>
       <c r="C74">
-        <v>10.36914480188519</v>
+        <v>10.36914578266762</v>
       </c>
       <c r="D74">
-        <v>9.580469817895507</v>
+        <v>9.580470724079836</v>
       </c>
       <c r="E74">
-        <v>10.08254909515381</v>
+        <v>10.08255004882812</v>
       </c>
       <c r="F74">
         <v>3058684</v>
@@ -2928,16 +2928,16 @@
         <v>44337</v>
       </c>
       <c r="B76">
-        <v>10.39500332152904</v>
+        <v>10.39500427718438</v>
       </c>
       <c r="C76">
-        <v>10.45964897649606</v>
+        <v>10.45964993809453</v>
       </c>
       <c r="D76">
-        <v>10.13426687411141</v>
+        <v>10.13426780579618</v>
       </c>
       <c r="E76">
-        <v>10.37345504760742</v>
+        <v>10.37345600128174</v>
       </c>
       <c r="F76">
         <v>1597862</v>
@@ -2980,16 +2980,16 @@
         <v>44341</v>
       </c>
       <c r="B78">
-        <v>10.5049026660763</v>
+        <v>10.50489985974097</v>
       </c>
       <c r="C78">
-        <v>10.76994847657209</v>
+        <v>10.76994559943101</v>
       </c>
       <c r="D78">
-        <v>10.45749595609131</v>
+        <v>10.45749316242045</v>
       </c>
       <c r="E78">
-        <v>10.70961380004883</v>
+        <v>10.70961093902588</v>
       </c>
       <c r="F78">
         <v>2528360</v>
@@ -3006,16 +3006,16 @@
         <v>44342</v>
       </c>
       <c r="B79">
-        <v>10.69883869616054</v>
+        <v>10.69883774916187</v>
       </c>
       <c r="C79">
-        <v>10.7958067684719</v>
+        <v>10.79580581289018</v>
       </c>
       <c r="D79">
-        <v>10.59109565296819</v>
+        <v>10.5910947155063</v>
       </c>
       <c r="E79">
-        <v>10.77425765991211</v>
+        <v>10.77425670623779</v>
       </c>
       <c r="F79">
         <v>2052367</v>
@@ -3032,16 +3032,16 @@
         <v>44343</v>
       </c>
       <c r="B80">
-        <v>10.77425751532222</v>
+        <v>10.77425845490277</v>
       </c>
       <c r="C80">
-        <v>11.03284014895195</v>
+        <v>11.03284111108247</v>
       </c>
       <c r="D80">
-        <v>10.71823133358259</v>
+        <v>10.71823226827732</v>
       </c>
       <c r="E80">
-        <v>10.93587207794189</v>
+        <v>10.93587303161621</v>
       </c>
       <c r="F80">
         <v>6818384</v>
@@ -3058,16 +3058,16 @@
         <v>44344</v>
       </c>
       <c r="B81">
-        <v>10.9358717104987</v>
+        <v>10.935872657641</v>
       </c>
       <c r="C81">
-        <v>11.11472438724238</v>
+        <v>11.11472534987489</v>
       </c>
       <c r="D81">
-        <v>10.74408940258666</v>
+        <v>10.74409033311893</v>
       </c>
       <c r="E81">
-        <v>11.01129150390625</v>
+        <v>11.01129245758057</v>
       </c>
       <c r="F81">
         <v>2512953</v>
@@ -3214,16 +3214,16 @@
         <v>44355</v>
       </c>
       <c r="B87">
-        <v>11.41424882180643</v>
+        <v>11.41424785941121</v>
       </c>
       <c r="C87">
-        <v>11.46381102255957</v>
+        <v>11.46381005598551</v>
       </c>
       <c r="D87">
-        <v>11.22246733441226</v>
+        <v>11.22246638818715</v>
       </c>
       <c r="E87">
-        <v>11.31081676483154</v>
+        <v>11.31081581115723</v>
       </c>
       <c r="F87">
         <v>1135248</v>
@@ -3240,16 +3240,16 @@
         <v>44356</v>
       </c>
       <c r="B88">
-        <v>11.29357756915974</v>
+        <v>11.29357660722614</v>
       </c>
       <c r="C88">
-        <v>11.4185587324308</v>
+        <v>11.4185577598519</v>
       </c>
       <c r="D88">
-        <v>11.01560131823378</v>
+        <v>11.01560037997689</v>
       </c>
       <c r="E88">
-        <v>11.19660949707031</v>
+        <v>11.196608543396</v>
       </c>
       <c r="F88">
         <v>1361892</v>
@@ -3266,16 +3266,16 @@
         <v>44357</v>
       </c>
       <c r="B89">
-        <v>11.22893139812395</v>
+        <v>11.22893236497164</v>
       </c>
       <c r="C89">
-        <v>11.28064742314659</v>
+        <v>11.2806483944472</v>
       </c>
       <c r="D89">
-        <v>10.98327840456152</v>
+        <v>10.98327935025769</v>
       </c>
       <c r="E89">
-        <v>11.07593631744385</v>
+        <v>11.07593727111816</v>
       </c>
       <c r="F89">
         <v>1040779</v>
@@ -3318,16 +3318,16 @@
         <v>44361</v>
       </c>
       <c r="B91">
-        <v>11.01129121834431</v>
+        <v>11.01129215335503</v>
       </c>
       <c r="C91">
-        <v>11.54569457392235</v>
+        <v>11.5456955543113</v>
       </c>
       <c r="D91">
-        <v>10.92725195073801</v>
+        <v>10.92725287861264</v>
       </c>
       <c r="E91">
-        <v>11.23108577728271</v>
+        <v>11.23108673095703</v>
       </c>
       <c r="F91">
         <v>2250630</v>
@@ -3344,16 +3344,16 @@
         <v>44362</v>
       </c>
       <c r="B92">
-        <v>11.20953826381659</v>
+        <v>11.20953731215467</v>
       </c>
       <c r="C92">
-        <v>11.65128293843106</v>
+        <v>11.65128194926611</v>
       </c>
       <c r="D92">
-        <v>11.09964138532578</v>
+        <v>11.09964044299383</v>
       </c>
       <c r="E92">
-        <v>11.23324203491211</v>
+        <v>11.23324108123779</v>
       </c>
       <c r="F92">
         <v>1573941</v>
@@ -3396,16 +3396,16 @@
         <v>44364</v>
       </c>
       <c r="B94">
-        <v>11.50690709013032</v>
+        <v>11.50690614442541</v>
       </c>
       <c r="C94">
-        <v>11.82798071824462</v>
+        <v>11.82797974615199</v>
       </c>
       <c r="D94">
-        <v>11.36899629796049</v>
+        <v>11.3689953635899</v>
       </c>
       <c r="E94">
-        <v>11.60387516021729</v>
+        <v>11.60387420654297</v>
       </c>
       <c r="F94">
         <v>2709189</v>
@@ -3422,16 +3422,16 @@
         <v>44365</v>
       </c>
       <c r="B95">
-        <v>11.6103396148702</v>
+        <v>11.61034056642522</v>
       </c>
       <c r="C95">
-        <v>11.63619804382324</v>
+        <v>11.63619899749756</v>
       </c>
       <c r="D95">
-        <v>11.2828020144048</v>
+        <v>11.28280293911564</v>
       </c>
       <c r="E95">
-        <v>11.63619804382324</v>
+        <v>11.63619899749756</v>
       </c>
       <c r="F95">
         <v>1275938</v>
@@ -3448,16 +3448,16 @@
         <v>44368</v>
       </c>
       <c r="B96">
-        <v>11.64481777187904</v>
+        <v>11.64481680947823</v>
       </c>
       <c r="C96">
-        <v>11.70515410740716</v>
+        <v>11.70515314001978</v>
       </c>
       <c r="D96">
-        <v>11.44657064548882</v>
+        <v>11.4465696994724</v>
       </c>
       <c r="E96">
-        <v>11.53922939300537</v>
+        <v>11.53922843933105</v>
       </c>
       <c r="F96">
         <v>1065511</v>
@@ -3474,16 +3474,16 @@
         <v>44369</v>
       </c>
       <c r="B97">
-        <v>11.53492101760465</v>
+        <v>11.53492196737563</v>
       </c>
       <c r="C97">
-        <v>11.72454783614712</v>
+        <v>11.72454880153173</v>
       </c>
       <c r="D97">
-        <v>11.45734656151041</v>
+        <v>11.457347504894</v>
       </c>
       <c r="E97">
-        <v>11.58232688903809</v>
+        <v>11.5823278427124</v>
       </c>
       <c r="F97">
         <v>1033076</v>
@@ -3578,16 +3578,16 @@
         <v>44375</v>
       </c>
       <c r="B101">
-        <v>11.89478048550518</v>
+        <v>11.89478141723659</v>
       </c>
       <c r="C101">
-        <v>12.31713065261818</v>
+        <v>12.31713161743276</v>
       </c>
       <c r="D101">
-        <v>11.7051536758131</v>
+        <v>11.70515459269083</v>
       </c>
       <c r="E101">
-        <v>12.17491054534912</v>
+        <v>12.17491149902344</v>
       </c>
       <c r="F101">
         <v>1601511</v>
@@ -3604,16 +3604,16 @@
         <v>44376</v>
       </c>
       <c r="B102">
-        <v>12.17275699839531</v>
+        <v>12.17275605721678</v>
       </c>
       <c r="C102">
-        <v>12.33437156677246</v>
+        <v>12.33437061309814</v>
       </c>
       <c r="D102">
-        <v>11.89478157386297</v>
+        <v>11.89478065417707</v>
       </c>
       <c r="E102">
-        <v>12.33437156677246</v>
+        <v>12.33437061309814</v>
       </c>
       <c r="F102">
         <v>1352973</v>
@@ -3786,16 +3786,16 @@
         <v>44385</v>
       </c>
       <c r="B109">
-        <v>13.44196365711115</v>
+        <v>13.44196270067708</v>
       </c>
       <c r="C109">
-        <v>13.96990306948348</v>
+        <v>13.969902075485</v>
       </c>
       <c r="D109">
-        <v>13.34930573970598</v>
+        <v>13.34930478986478</v>
       </c>
       <c r="E109">
-        <v>13.40317726135254</v>
+        <v>13.40317630767822</v>
       </c>
       <c r="F109">
         <v>8587750</v>
@@ -3812,16 +3812,16 @@
         <v>44389</v>
       </c>
       <c r="B110">
-        <v>13.53893298551418</v>
+        <v>13.53893204190229</v>
       </c>
       <c r="C110">
-        <v>14.15953033467191</v>
+        <v>14.15952934780676</v>
       </c>
       <c r="D110">
-        <v>13.41610647890185</v>
+        <v>13.4161055438505</v>
       </c>
       <c r="E110">
-        <v>13.68330860137939</v>
+        <v>13.68330764770508</v>
       </c>
       <c r="F110">
         <v>8663568</v>
@@ -3838,16 +3838,16 @@
         <v>44390</v>
       </c>
       <c r="B111">
-        <v>13.68330787093308</v>
+        <v>13.68330882883124</v>
       </c>
       <c r="C111">
-        <v>13.85354107569076</v>
+        <v>13.85354204550607</v>
       </c>
       <c r="D111">
-        <v>13.48075142062267</v>
+        <v>13.48075236434089</v>
       </c>
       <c r="E111">
-        <v>13.622971534729</v>
+        <v>13.62297248840332</v>
       </c>
       <c r="F111">
         <v>2696620</v>
@@ -3916,16 +3916,16 @@
         <v>44393</v>
       </c>
       <c r="B114">
-        <v>14.00222664306086</v>
+        <v>14.00222476518951</v>
       </c>
       <c r="C114">
-        <v>14.30606049915766</v>
+        <v>14.30605858053844</v>
       </c>
       <c r="D114">
-        <v>13.85569636738171</v>
+        <v>13.85569450916187</v>
       </c>
       <c r="E114">
-        <v>14.22202205657959</v>
+        <v>14.22202014923096</v>
       </c>
       <c r="F114">
         <v>2056421</v>
@@ -3942,16 +3942,16 @@
         <v>44396</v>
       </c>
       <c r="B115">
-        <v>14.11212268341578</v>
+        <v>14.11212079080601</v>
       </c>
       <c r="C115">
-        <v>14.62066765999297</v>
+        <v>14.62066569918104</v>
       </c>
       <c r="D115">
-        <v>13.85569636738171</v>
+        <v>13.85569450916187</v>
       </c>
       <c r="E115">
-        <v>14.22202205657959</v>
+        <v>14.22202014923096</v>
       </c>
       <c r="F115">
         <v>4311511</v>
@@ -3968,16 +3968,16 @@
         <v>44397</v>
       </c>
       <c r="B116">
-        <v>14.30821535229049</v>
+        <v>14.30821440715656</v>
       </c>
       <c r="C116">
-        <v>14.53447475169139</v>
+        <v>14.53447379161182</v>
       </c>
       <c r="D116">
-        <v>14.13798213749566</v>
+        <v>14.13798120360654</v>
       </c>
       <c r="E116">
-        <v>14.43750667572021</v>
+        <v>14.4375057220459</v>
       </c>
       <c r="F116">
         <v>2364155</v>
@@ -3994,16 +3994,16 @@
         <v>44398</v>
       </c>
       <c r="B117">
-        <v>14.43965987725408</v>
+        <v>14.43966081428799</v>
       </c>
       <c r="C117">
-        <v>14.72625475424765</v>
+        <v>14.72625570987959</v>
       </c>
       <c r="D117">
-        <v>14.38578835906955</v>
+        <v>14.38578929260757</v>
       </c>
       <c r="E117">
-        <v>14.69608783721924</v>
+        <v>14.69608879089355</v>
       </c>
       <c r="F117">
         <v>2316312</v>
@@ -4020,16 +4020,16 @@
         <v>44399</v>
       </c>
       <c r="B118">
-        <v>14.7391860895732</v>
+        <v>14.7391870026656</v>
       </c>
       <c r="C118">
-        <v>15.40719099262107</v>
+        <v>15.40719194709637</v>
       </c>
       <c r="D118">
-        <v>14.7391860895732</v>
+        <v>14.7391870026656</v>
       </c>
       <c r="E118">
-        <v>15.39426136016846</v>
+        <v>15.39426231384277</v>
       </c>
       <c r="F118">
         <v>3546030</v>
@@ -4046,16 +4046,16 @@
         <v>44400</v>
       </c>
       <c r="B119">
-        <v>15.62267350275612</v>
+        <v>15.62267253938155</v>
       </c>
       <c r="C119">
-        <v>15.62267350275612</v>
+        <v>15.62267253938155</v>
       </c>
       <c r="D119">
-        <v>15.32314899700194</v>
+        <v>15.32314805209759</v>
       </c>
       <c r="E119">
-        <v>15.46536827087402</v>
+        <v>15.46536731719971</v>
       </c>
       <c r="F119">
         <v>2488627</v>
@@ -4124,16 +4124,16 @@
         <v>44405</v>
       </c>
       <c r="B122">
-        <v>15.53432558750307</v>
+        <v>15.53432463077642</v>
       </c>
       <c r="C122">
-        <v>15.77351461644622</v>
+        <v>15.77351364498842</v>
       </c>
       <c r="D122">
-        <v>14.4073379252774</v>
+        <v>14.40733703795957</v>
       </c>
       <c r="E122">
-        <v>15.48476505279541</v>
+        <v>15.48476409912109</v>
       </c>
       <c r="F122">
         <v>6581198</v>
@@ -4150,16 +4150,16 @@
         <v>44406</v>
       </c>
       <c r="B123">
-        <v>15.49769198667416</v>
+        <v>15.49769387096695</v>
       </c>
       <c r="C123">
-        <v>15.72826069005315</v>
+        <v>15.72826260237972</v>
       </c>
       <c r="D123">
-        <v>15.2455750088042</v>
+        <v>15.24557686244325</v>
       </c>
       <c r="E123">
-        <v>15.68731880187988</v>
+        <v>15.68732070922852</v>
       </c>
       <c r="F123">
         <v>6067903</v>
@@ -4202,16 +4202,16 @@
         <v>44410</v>
       </c>
       <c r="B125">
-        <v>16.05579941604877</v>
+        <v>16.05579746817938</v>
       </c>
       <c r="C125">
-        <v>16.27559481932428</v>
+        <v>16.27559284478959</v>
       </c>
       <c r="D125">
-        <v>15.56880273804872</v>
+        <v>15.56880084926115</v>
       </c>
       <c r="E125">
-        <v>15.72179698944092</v>
+        <v>15.72179508209229</v>
       </c>
       <c r="F125">
         <v>3314925</v>
@@ -4228,16 +4228,16 @@
         <v>44411</v>
       </c>
       <c r="B126">
-        <v>15.79936958146805</v>
+        <v>15.79937054699413</v>
       </c>
       <c r="C126">
-        <v>15.79936958146805</v>
+        <v>15.79937054699413</v>
       </c>
       <c r="D126">
-        <v>15.15076008521301</v>
+        <v>15.15076101110147</v>
       </c>
       <c r="E126">
-        <v>15.60543346405029</v>
+        <v>15.60543441772461</v>
       </c>
       <c r="F126">
         <v>3496971</v>
@@ -4280,16 +4280,16 @@
         <v>44413</v>
       </c>
       <c r="B128">
-        <v>15.00207609925002</v>
+        <v>15.00207708287675</v>
       </c>
       <c r="C128">
-        <v>15.21325118085393</v>
+        <v>15.21325217832656</v>
       </c>
       <c r="D128">
-        <v>14.54524803161621</v>
+        <v>14.54524898529053</v>
       </c>
       <c r="E128">
-        <v>14.54524803161621</v>
+        <v>14.54524898529053</v>
       </c>
       <c r="F128">
         <v>2928535</v>
@@ -4306,16 +4306,16 @@
         <v>44414</v>
       </c>
       <c r="B129">
-        <v>14.54524820077067</v>
+        <v>14.54524917053592</v>
       </c>
       <c r="C129">
-        <v>14.799519832662</v>
+        <v>14.79952081938013</v>
       </c>
       <c r="D129">
-        <v>14.11643238399338</v>
+        <v>14.1164333251685</v>
       </c>
       <c r="E129">
-        <v>14.30390453338623</v>
+        <v>14.30390548706055</v>
       </c>
       <c r="F129">
         <v>4270967</v>
@@ -4332,16 +4332,16 @@
         <v>44417</v>
       </c>
       <c r="B130">
-        <v>14.198317644055</v>
+        <v>14.1983167061804</v>
       </c>
       <c r="C130">
-        <v>14.53232009071475</v>
+        <v>14.5323191307775</v>
       </c>
       <c r="D130">
-        <v>14.17892402886077</v>
+        <v>14.17892309226722</v>
       </c>
       <c r="E130">
-        <v>14.43750667572021</v>
+        <v>14.4375057220459</v>
       </c>
       <c r="F130">
         <v>2523089</v>
@@ -4462,16 +4462,16 @@
         <v>44424</v>
       </c>
       <c r="B135">
-        <v>13.29112292282144</v>
+        <v>13.29112396577592</v>
       </c>
       <c r="C135">
-        <v>13.29112292282144</v>
+        <v>13.29112396577592</v>
       </c>
       <c r="D135">
-        <v>12.07578687409209</v>
+        <v>12.07578782167914</v>
       </c>
       <c r="E135">
-        <v>12.15336132049561</v>
+        <v>12.15336227416992</v>
       </c>
       <c r="F135">
         <v>7844263</v>
@@ -4540,16 +4540,16 @@
         <v>44427</v>
       </c>
       <c r="B138">
-        <v>12.73948116388129</v>
+        <v>12.73948206858641</v>
       </c>
       <c r="C138">
-        <v>13.61866103550581</v>
+        <v>13.61866200264664</v>
       </c>
       <c r="D138">
-        <v>12.23093625442868</v>
+        <v>12.23093712301904</v>
       </c>
       <c r="E138">
-        <v>13.42903423309326</v>
+        <v>13.42903518676758</v>
       </c>
       <c r="F138">
         <v>2072031</v>
@@ -4566,16 +4566,16 @@
         <v>44428</v>
       </c>
       <c r="B139">
-        <v>13.14459431786509</v>
+        <v>13.14459341454004</v>
       </c>
       <c r="C139">
-        <v>14.0668708142594</v>
+        <v>14.06686984755352</v>
       </c>
       <c r="D139">
-        <v>12.98082592904454</v>
+        <v>12.98082503697402</v>
       </c>
       <c r="E139">
-        <v>13.8772439956665</v>
+        <v>13.87724304199219</v>
       </c>
       <c r="F139">
         <v>3576438</v>
@@ -4618,16 +4618,16 @@
         <v>44432</v>
       </c>
       <c r="B141">
-        <v>13.99791526794434</v>
+        <v>13.99791717529297</v>
       </c>
       <c r="C141">
-        <v>14.29097410991218</v>
+        <v>14.29097605719286</v>
       </c>
       <c r="D141">
-        <v>13.73071318675843</v>
+        <v>13.73071505769825</v>
       </c>
       <c r="E141">
-        <v>13.99791526794434</v>
+        <v>13.99791717529297</v>
       </c>
       <c r="F141">
         <v>2525015</v>
@@ -4644,16 +4644,16 @@
         <v>44433</v>
       </c>
       <c r="B142">
-        <v>13.799668595629</v>
+        <v>13.79966954692654</v>
       </c>
       <c r="C142">
-        <v>13.9375785452439</v>
+        <v>13.93757950604843</v>
       </c>
       <c r="D142">
-        <v>13.39455655638126</v>
+        <v>13.39455747975189</v>
       </c>
       <c r="E142">
-        <v>13.83414649963379</v>
+        <v>13.83414745330811</v>
       </c>
       <c r="F142">
         <v>2709595</v>
@@ -4670,16 +4670,16 @@
         <v>44434</v>
       </c>
       <c r="B143">
-        <v>13.83414724096932</v>
+        <v>13.83414822027023</v>
       </c>
       <c r="C143">
-        <v>14.12720610790576</v>
+        <v>14.12720710795192</v>
       </c>
       <c r="D143">
-        <v>13.16183307606118</v>
+        <v>13.16183400776987</v>
       </c>
       <c r="E143">
-        <v>13.47213172912598</v>
+        <v>13.47213268280029</v>
       </c>
       <c r="F143">
         <v>2624147</v>
@@ -4748,16 +4748,16 @@
         <v>44439</v>
       </c>
       <c r="B146">
-        <v>13.63590101189097</v>
+        <v>13.63590001996942</v>
       </c>
       <c r="C146">
-        <v>13.75657369030681</v>
+        <v>13.75657268960711</v>
       </c>
       <c r="D146">
-        <v>12.82567683671675</v>
+        <v>12.82567590373364</v>
       </c>
       <c r="E146">
-        <v>13.11011791229248</v>
+        <v>13.11011695861816</v>
       </c>
       <c r="F146">
         <v>2117441</v>
@@ -4774,16 +4774,16 @@
         <v>44440</v>
       </c>
       <c r="B147">
-        <v>13.4376549998743</v>
+        <v>13.43765404436127</v>
       </c>
       <c r="C147">
-        <v>13.63590046398506</v>
+        <v>13.63589949437536</v>
       </c>
       <c r="D147">
-        <v>12.89463213483345</v>
+        <v>12.89463121793322</v>
       </c>
       <c r="E147">
-        <v>13.41179656982422</v>
+        <v>13.4117956161499</v>
       </c>
       <c r="F147">
         <v>3411726</v>
@@ -4800,16 +4800,16 @@
         <v>44441</v>
       </c>
       <c r="B148">
-        <v>13.41179629786653</v>
+        <v>13.41179532480601</v>
       </c>
       <c r="C148">
-        <v>13.53246730258231</v>
+        <v>13.5324663207668</v>
       </c>
       <c r="D148">
-        <v>13.03254266429768</v>
+        <v>13.032541718753</v>
       </c>
       <c r="E148">
-        <v>13.14459419250488</v>
+        <v>13.14459323883057</v>
       </c>
       <c r="F148">
         <v>2514879</v>
@@ -4826,16 +4826,16 @@
         <v>44442</v>
       </c>
       <c r="B149">
-        <v>13.29112488796455</v>
+        <v>13.29112394529414</v>
       </c>
       <c r="C149">
-        <v>13.5669456455149</v>
+        <v>13.56694468328196</v>
       </c>
       <c r="D149">
-        <v>13.08425911150124</v>
+        <v>13.08425818350275</v>
       </c>
       <c r="E149">
-        <v>13.44627380371094</v>
+        <v>13.44627285003662</v>
       </c>
       <c r="F149">
         <v>3315331</v>
@@ -4852,16 +4852,16 @@
         <v>44445</v>
       </c>
       <c r="B150">
-        <v>13.71347541359796</v>
+        <v>13.71347357445171</v>
       </c>
       <c r="C150">
-        <v>14.22202205657959</v>
+        <v>14.22202014923096</v>
       </c>
       <c r="D150">
-        <v>13.3428412357069</v>
+        <v>13.34283944626727</v>
       </c>
       <c r="E150">
-        <v>14.22202205657959</v>
+        <v>14.22202014923096</v>
       </c>
       <c r="F150">
         <v>1953438</v>
@@ -4904,16 +4904,16 @@
         <v>44448</v>
       </c>
       <c r="B152">
-        <v>13.56694513701782</v>
+        <v>13.56694609740385</v>
       </c>
       <c r="C152">
-        <v>13.73071435661439</v>
+        <v>13.73071532859343</v>
       </c>
       <c r="D152">
-        <v>12.86015389945948</v>
+        <v>12.8601548098127</v>
       </c>
       <c r="E152">
-        <v>13.47213172912598</v>
+        <v>13.47213268280029</v>
       </c>
       <c r="F152">
         <v>3739731</v>
@@ -4930,16 +4930,16 @@
         <v>44449</v>
       </c>
       <c r="B153">
-        <v>14.13582542081374</v>
+        <v>14.13582642468143</v>
       </c>
       <c r="C153">
-        <v>14.13582542081374</v>
+        <v>14.13582642468143</v>
       </c>
       <c r="D153">
-        <v>13.35145895039549</v>
+        <v>13.35145989856073</v>
       </c>
       <c r="E153">
-        <v>13.42903423309326</v>
+        <v>13.42903518676758</v>
       </c>
       <c r="F153">
         <v>2018917</v>
@@ -4956,16 +4956,16 @@
         <v>44452</v>
       </c>
       <c r="B154">
-        <v>13.59280260856985</v>
+        <v>13.5928044943936</v>
       </c>
       <c r="C154">
-        <v>13.89448176391327</v>
+        <v>13.89448369159107</v>
       </c>
       <c r="D154">
-        <v>13.31698188079354</v>
+        <v>13.31698372835077</v>
       </c>
       <c r="E154">
-        <v>13.74795150756836</v>
+        <v>13.74795341491699</v>
       </c>
       <c r="F154">
         <v>1856739</v>
@@ -4982,16 +4982,16 @@
         <v>44453</v>
       </c>
       <c r="B155">
-        <v>13.79104939631756</v>
+        <v>13.7910503417196</v>
       </c>
       <c r="C155">
-        <v>14.42026615781614</v>
+        <v>14.42026714635215</v>
       </c>
       <c r="D155">
-        <v>13.62728101541338</v>
+        <v>13.6272819495888</v>
       </c>
       <c r="E155">
-        <v>13.91172122955322</v>
+        <v>13.91172218322754</v>
       </c>
       <c r="F155">
         <v>1943200</v>
@@ -5008,16 +5008,16 @@
         <v>44454</v>
       </c>
       <c r="B156">
-        <v>13.82552686180419</v>
+        <v>13.82552590634289</v>
       </c>
       <c r="C156">
-        <v>14.44612416481408</v>
+        <v>14.44612316646424</v>
       </c>
       <c r="D156">
-        <v>13.58418402165734</v>
+        <v>13.58418308287489</v>
       </c>
       <c r="E156">
-        <v>13.79966926574707</v>
+        <v>13.79966831207275</v>
       </c>
       <c r="F156">
         <v>2602050</v>
@@ -5034,16 +5034,16 @@
         <v>44455</v>
       </c>
       <c r="B157">
-        <v>13.83414755829338</v>
+        <v>13.83414661052416</v>
       </c>
       <c r="C157">
-        <v>14.15306569513652</v>
+        <v>14.15306472551841</v>
       </c>
       <c r="D157">
-        <v>13.68761728826192</v>
+        <v>13.68761635053139</v>
       </c>
       <c r="E157">
-        <v>13.92034149169922</v>
+        <v>13.9203405380249</v>
       </c>
       <c r="F157">
         <v>1227183</v>
@@ -5060,16 +5060,16 @@
         <v>44456</v>
       </c>
       <c r="B158">
-        <v>13.75657271685043</v>
+        <v>13.75657176615445</v>
       </c>
       <c r="C158">
-        <v>14.10996875045418</v>
+        <v>14.10996777533554</v>
       </c>
       <c r="D158">
-        <v>13.64451952339351</v>
+        <v>13.64451858044136</v>
       </c>
       <c r="E158">
-        <v>13.79966926574707</v>
+        <v>13.79966831207275</v>
       </c>
       <c r="F158">
         <v>5378949</v>
@@ -5112,16 +5112,16 @@
         <v>44460</v>
       </c>
       <c r="B160">
-        <v>13.32560249306938</v>
+        <v>13.32560157730506</v>
       </c>
       <c r="C160">
-        <v>14.00653531132609</v>
+        <v>14.0065343487666</v>
       </c>
       <c r="D160">
-        <v>13.14459431786509</v>
+        <v>13.14459341454004</v>
       </c>
       <c r="E160">
-        <v>13.8772439956665</v>
+        <v>13.87724304199219</v>
       </c>
       <c r="F160">
         <v>1911981</v>
@@ -5138,16 +5138,16 @@
         <v>44461</v>
       </c>
       <c r="B161">
-        <v>14.07549038634571</v>
+        <v>14.07548945879945</v>
       </c>
       <c r="C161">
-        <v>14.84261793030456</v>
+        <v>14.84261695220615</v>
       </c>
       <c r="D161">
-        <v>13.94619907746238</v>
+        <v>13.94619815843615</v>
       </c>
       <c r="E161">
-        <v>14.47198295593262</v>
+        <v>14.4719820022583</v>
       </c>
       <c r="F161">
         <v>3751489</v>
@@ -5190,16 +5190,16 @@
         <v>44463</v>
       </c>
       <c r="B163">
-        <v>14.54093853931029</v>
+        <v>14.54093658919102</v>
       </c>
       <c r="C163">
-        <v>14.64437226322655</v>
+        <v>14.64437029923555</v>
       </c>
       <c r="D163">
-        <v>14.1961627923983</v>
+        <v>14.19616088851772</v>
       </c>
       <c r="E163">
-        <v>14.22202205657959</v>
+        <v>14.22202014923096</v>
       </c>
       <c r="F163">
         <v>7509973</v>
@@ -5216,16 +5216,16 @@
         <v>44466</v>
       </c>
       <c r="B164">
-        <v>14.23064143681616</v>
+        <v>14.23063855660343</v>
       </c>
       <c r="C164">
-        <v>14.35993109879565</v>
+        <v>14.35992819241533</v>
       </c>
       <c r="D164">
-        <v>13.86862671718361</v>
+        <v>13.8686239102409</v>
       </c>
       <c r="E164">
-        <v>14.13582801818848</v>
+        <v>14.13582515716553</v>
       </c>
       <c r="F164">
         <v>2647359</v>
@@ -5242,16 +5242,16 @@
         <v>44467</v>
       </c>
       <c r="B165">
-        <v>14.00653522167792</v>
+        <v>14.00653423333561</v>
       </c>
       <c r="C165">
-        <v>14.25649754160426</v>
+        <v>14.25649653562387</v>
       </c>
       <c r="D165">
-        <v>13.49798943888528</v>
+        <v>13.49798848642745</v>
       </c>
       <c r="E165">
-        <v>13.51522922515869</v>
+        <v>13.51522827148438</v>
       </c>
       <c r="F165">
         <v>3700200</v>
@@ -5268,16 +5268,16 @@
         <v>44468</v>
       </c>
       <c r="B166">
-        <v>13.64452080989985</v>
+        <v>13.64451983340155</v>
       </c>
       <c r="C166">
-        <v>13.86000607430712</v>
+        <v>13.86000508238718</v>
       </c>
       <c r="D166">
-        <v>13.14459529642779</v>
+        <v>13.1445943557077</v>
       </c>
       <c r="E166">
-        <v>13.32560348510742</v>
+        <v>13.32560253143311</v>
       </c>
       <c r="F166">
         <v>4585796</v>
@@ -5346,16 +5346,16 @@
         <v>44473</v>
       </c>
       <c r="B169">
-        <v>13.05840057768611</v>
+        <v>13.0583995948177</v>
       </c>
       <c r="C169">
-        <v>13.16183346509831</v>
+        <v>13.16183247444479</v>
       </c>
       <c r="D169">
-        <v>12.45504220664866</v>
+        <v>12.4550412691933</v>
       </c>
       <c r="E169">
-        <v>12.67052745819092</v>
+        <v>12.6705265045166</v>
       </c>
       <c r="F169">
         <v>1681992</v>
@@ -5398,16 +5398,16 @@
         <v>44475</v>
       </c>
       <c r="B171">
-        <v>12.25679622281501</v>
+        <v>12.25679531266413</v>
       </c>
       <c r="C171">
-        <v>12.94634854550953</v>
+        <v>12.94634758415468</v>
       </c>
       <c r="D171">
-        <v>11.9895941041143</v>
+        <v>11.989593213805</v>
       </c>
       <c r="E171">
-        <v>12.84291648864746</v>
+        <v>12.84291553497314</v>
       </c>
       <c r="F171">
         <v>5058241</v>
@@ -5450,16 +5450,16 @@
         <v>44477</v>
       </c>
       <c r="B173">
-        <v>13.4635135988933</v>
+        <v>13.46351264092588</v>
       </c>
       <c r="C173">
-        <v>13.7393335234137</v>
+        <v>13.7393325458209</v>
       </c>
       <c r="D173">
-        <v>13.23940803551553</v>
+        <v>13.23940709349386</v>
       </c>
       <c r="E173">
-        <v>13.40317726135254</v>
+        <v>13.40317630767822</v>
       </c>
       <c r="F173">
         <v>3251676</v>
@@ -5476,16 +5476,16 @@
         <v>44480</v>
       </c>
       <c r="B174">
-        <v>13.40317715700355</v>
+        <v>13.4031781168505</v>
       </c>
       <c r="C174">
-        <v>13.58418450181222</v>
+        <v>13.58418547462172</v>
       </c>
       <c r="D174">
-        <v>13.08425901780616</v>
+        <v>13.08425995481431</v>
       </c>
       <c r="E174">
-        <v>13.31698322296143</v>
+        <v>13.31698417663574</v>
       </c>
       <c r="F174">
         <v>2493289</v>
@@ -5502,16 +5502,16 @@
         <v>44482</v>
       </c>
       <c r="B175">
-        <v>13.17045338572645</v>
+        <v>13.17045431804535</v>
       </c>
       <c r="C175">
-        <v>13.69623645076202</v>
+        <v>13.69623742030041</v>
       </c>
       <c r="D175">
-        <v>13.17045338572645</v>
+        <v>13.17045431804535</v>
       </c>
       <c r="E175">
-        <v>13.47213172912598</v>
+        <v>13.47213268280029</v>
       </c>
       <c r="F175">
         <v>2244954</v>
@@ -5528,16 +5528,16 @@
         <v>44483</v>
       </c>
       <c r="B176">
-        <v>13.47213184248061</v>
+        <v>13.47213089184737</v>
       </c>
       <c r="C176">
-        <v>13.64451970678858</v>
+        <v>13.64451874399115</v>
       </c>
       <c r="D176">
-        <v>13.19631109294743</v>
+        <v>13.19631016177691</v>
       </c>
       <c r="E176">
-        <v>13.51522922515869</v>
+        <v>13.51522827148438</v>
       </c>
       <c r="F176">
         <v>1588233</v>
@@ -5658,16 +5658,16 @@
         <v>44490</v>
       </c>
       <c r="B181">
-        <v>12.16198300077093</v>
+        <v>12.16198199581614</v>
       </c>
       <c r="C181">
-        <v>12.2740353695346</v>
+        <v>12.27403435532082</v>
       </c>
       <c r="D181">
-        <v>11.11903544000525</v>
+        <v>11.11903452123008</v>
       </c>
       <c r="E181">
-        <v>11.54138565063477</v>
+        <v>11.54138469696045</v>
       </c>
       <c r="F181">
         <v>4870723</v>
@@ -5684,16 +5684,16 @@
         <v>44491</v>
       </c>
       <c r="B182">
-        <v>11.12765301531629</v>
+        <v>11.12765203350325</v>
       </c>
       <c r="C182">
-        <v>11.12765301531629</v>
+        <v>11.12765203350325</v>
       </c>
       <c r="D182">
-        <v>9.877839791188361</v>
+        <v>9.87783891964861</v>
       </c>
       <c r="E182">
-        <v>10.80873489379883</v>
+        <v>10.80873394012451</v>
       </c>
       <c r="F182">
         <v>15708900</v>
@@ -5710,16 +5710,16 @@
         <v>44494</v>
       </c>
       <c r="B183">
-        <v>10.93802665894442</v>
+        <v>10.93802569616582</v>
       </c>
       <c r="C183">
-        <v>11.3172802967499</v>
+        <v>11.31727930058892</v>
       </c>
       <c r="D183">
-        <v>10.62772800077571</v>
+        <v>10.62772706530997</v>
       </c>
       <c r="E183">
-        <v>10.83459377288818</v>
+        <v>10.83459281921387</v>
       </c>
       <c r="F183">
         <v>10777158</v>
@@ -5736,16 +5736,16 @@
         <v>44495</v>
       </c>
       <c r="B184">
-        <v>10.73977911057199</v>
+        <v>10.73978010996491</v>
       </c>
       <c r="C184">
-        <v>10.73977911057199</v>
+        <v>10.73978010996491</v>
       </c>
       <c r="D184">
-        <v>10.08470396423385</v>
+        <v>10.08470490266859</v>
       </c>
       <c r="E184">
-        <v>10.24847316741943</v>
+        <v>10.24847412109375</v>
       </c>
       <c r="F184">
         <v>5760068</v>
@@ -5762,16 +5762,16 @@
         <v>44496</v>
       </c>
       <c r="B185">
-        <v>10.34328788150532</v>
+        <v>10.34328602067747</v>
       </c>
       <c r="C185">
-        <v>10.8518328815107</v>
+        <v>10.85183092919214</v>
       </c>
       <c r="D185">
-        <v>10.23985581922848</v>
+        <v>10.23985397700876</v>
       </c>
       <c r="E185">
-        <v>10.6018705368042</v>
+        <v>10.60186862945557</v>
       </c>
       <c r="F185">
         <v>4005501</v>
@@ -5788,16 +5788,16 @@
         <v>44497</v>
       </c>
       <c r="B186">
-        <v>10.5242955680623</v>
+        <v>10.52429458125189</v>
       </c>
       <c r="C186">
-        <v>10.71392239513337</v>
+        <v>10.7139213905426</v>
       </c>
       <c r="D186">
-        <v>10.08470557508704</v>
+        <v>10.08470462949477</v>
       </c>
       <c r="E186">
-        <v>10.17090034484863</v>
+        <v>10.17089939117432</v>
       </c>
       <c r="F186">
         <v>4167680</v>
@@ -5840,16 +5840,16 @@
         <v>44501</v>
       </c>
       <c r="B188">
-        <v>9.464108111093317</v>
+        <v>9.464107181959013</v>
       </c>
       <c r="C188">
-        <v>10.07608596936805</v>
+        <v>10.07608498015311</v>
       </c>
       <c r="D188">
-        <v>9.240003378981006</v>
+        <v>9.240002471848078</v>
       </c>
       <c r="E188">
-        <v>9.714071273803711</v>
+        <v>9.714070320129395</v>
       </c>
       <c r="F188">
         <v>8542036</v>
@@ -5866,16 +5866,16 @@
         <v>44503</v>
       </c>
       <c r="B189">
-        <v>9.912317405738422</v>
+        <v>9.912316497853096</v>
       </c>
       <c r="C189">
-        <v>10.5673918039341</v>
+        <v>10.56739083604944</v>
       </c>
       <c r="D189">
-        <v>9.800264208397058</v>
+        <v>9.800263310774866</v>
       </c>
       <c r="E189">
-        <v>10.4122428894043</v>
+        <v>10.41224193572998</v>
       </c>
       <c r="F189">
         <v>6020061</v>
@@ -5918,16 +5918,16 @@
         <v>44505</v>
       </c>
       <c r="B191">
-        <v>10.92078770573468</v>
+        <v>10.92078674447347</v>
       </c>
       <c r="C191">
-        <v>11.25694396051582</v>
+        <v>11.25694296966572</v>
       </c>
       <c r="D191">
-        <v>10.56739166454163</v>
+        <v>10.56739073438677</v>
       </c>
       <c r="E191">
-        <v>10.83459377288818</v>
+        <v>10.83459281921387</v>
       </c>
       <c r="F191">
         <v>3221166</v>
@@ -5944,16 +5944,16 @@
         <v>44508</v>
       </c>
       <c r="B192">
-        <v>11.11041383717138</v>
+        <v>11.11041286232116</v>
       </c>
       <c r="C192">
-        <v>11.11041383717138</v>
+        <v>11.11041286232116</v>
       </c>
       <c r="D192">
-        <v>10.37776420350615</v>
+        <v>10.37776329294009</v>
       </c>
       <c r="E192">
-        <v>10.8690710067749</v>
+        <v>10.86907005310059</v>
       </c>
       <c r="F192">
         <v>1684830</v>
@@ -5996,16 +5996,16 @@
         <v>44510</v>
       </c>
       <c r="B194">
-        <v>11.03283966640025</v>
+        <v>11.0328406275838</v>
       </c>
       <c r="C194">
-        <v>11.46381014813198</v>
+        <v>11.46381114686178</v>
       </c>
       <c r="D194">
-        <v>10.72254101953766</v>
+        <v>10.72254195368792</v>
       </c>
       <c r="E194">
-        <v>10.94664573669434</v>
+        <v>10.94664669036865</v>
       </c>
       <c r="F194">
         <v>2771222</v>
@@ -6022,16 +6022,16 @@
         <v>44511</v>
       </c>
       <c r="B195">
-        <v>11.06731731392271</v>
+        <v>11.06731639736748</v>
       </c>
       <c r="C195">
-        <v>11.8344449112843</v>
+        <v>11.83444393119834</v>
       </c>
       <c r="D195">
-        <v>10.97250473619737</v>
+        <v>10.97250382749417</v>
       </c>
       <c r="E195">
-        <v>11.51552677154541</v>
+        <v>11.51552581787109</v>
       </c>
       <c r="F195">
         <v>2903296</v>
@@ -6100,16 +6100,16 @@
         <v>44517</v>
       </c>
       <c r="B198">
-        <v>10.56739266125198</v>
+        <v>10.5673916893445</v>
       </c>
       <c r="C198">
-        <v>10.62772900317695</v>
+        <v>10.62772802572019</v>
       </c>
       <c r="D198">
-        <v>10.05884849281226</v>
+        <v>10.05884756767675</v>
       </c>
       <c r="E198">
-        <v>10.3691463470459</v>
+        <v>10.36914539337158</v>
       </c>
       <c r="F198">
         <v>3557179</v>
@@ -6178,16 +6178,16 @@
         <v>44522</v>
       </c>
       <c r="B201">
-        <v>11.07593805916862</v>
+        <v>11.07593604524672</v>
       </c>
       <c r="C201">
-        <v>11.21384886958617</v>
+        <v>11.21384683058815</v>
       </c>
       <c r="D201">
-        <v>10.46396097302162</v>
+        <v>10.46395907037464</v>
       </c>
       <c r="E201">
-        <v>10.48981857299805</v>
+        <v>10.48981666564941</v>
       </c>
       <c r="F201">
         <v>1734497</v>
@@ -6282,16 +6282,16 @@
         <v>44526</v>
       </c>
       <c r="B205">
-        <v>9.912318253091959</v>
+        <v>9.912316308543122</v>
       </c>
       <c r="C205">
-        <v>9.938175852255897</v>
+        <v>9.938173902634446</v>
       </c>
       <c r="D205">
-        <v>9.421011370943136</v>
+        <v>9.421009522776416</v>
       </c>
       <c r="E205">
-        <v>9.722690582275391</v>
+        <v>9.722688674926758</v>
       </c>
       <c r="F205">
         <v>2092506</v>
@@ -6308,16 +6308,16 @@
         <v>44529</v>
       </c>
       <c r="B206">
-        <v>9.99851268345855</v>
+        <v>9.998510754492175</v>
       </c>
       <c r="C206">
-        <v>10.17090140779563</v>
+        <v>10.17089944557111</v>
       </c>
       <c r="D206">
-        <v>9.705452935248507</v>
+        <v>9.705451062820783</v>
       </c>
       <c r="E206">
-        <v>9.886460304260254</v>
+        <v>9.886458396911621</v>
       </c>
       <c r="F206">
         <v>2527144</v>
@@ -6334,16 +6334,16 @@
         <v>44530</v>
       </c>
       <c r="B207">
-        <v>9.748548916473865</v>
+        <v>9.748546986946744</v>
       </c>
       <c r="C207">
-        <v>9.877841077002921</v>
+        <v>9.877839121885042</v>
       </c>
       <c r="D207">
-        <v>9.188287886728183</v>
+        <v>9.188286068093344</v>
       </c>
       <c r="E207">
-        <v>9.636496543884277</v>
+        <v>9.636494636535645</v>
       </c>
       <c r="F207">
         <v>4785579</v>
@@ -6360,16 +6360,16 @@
         <v>44531</v>
       </c>
       <c r="B208">
-        <v>9.791644713638128</v>
+        <v>9.7916457223662</v>
       </c>
       <c r="C208">
-        <v>10.02436889840301</v>
+        <v>10.02436993110616</v>
       </c>
       <c r="D208">
-        <v>9.257242202758789</v>
+        <v>9.257243156433105</v>
       </c>
       <c r="E208">
-        <v>9.257242202758789</v>
+        <v>9.257243156433105</v>
       </c>
       <c r="F208">
         <v>2660840</v>
@@ -6386,16 +6386,16 @@
         <v>44532</v>
       </c>
       <c r="B209">
-        <v>9.343436619640588</v>
+        <v>9.34343567812607</v>
       </c>
       <c r="C209">
-        <v>9.722690283203264</v>
+        <v>9.722689303472311</v>
       </c>
       <c r="D209">
-        <v>9.188287696620309</v>
+        <v>9.188286770739756</v>
       </c>
       <c r="E209">
-        <v>9.464108467102051</v>
+        <v>9.464107513427734</v>
       </c>
       <c r="F209">
         <v>2421323</v>
@@ -6412,16 +6412,16 @@
         <v>44533</v>
       </c>
       <c r="B210">
-        <v>9.90369734239448</v>
+        <v>9.903698271802311</v>
       </c>
       <c r="C210">
-        <v>10.35190677240238</v>
+        <v>10.35190774387221</v>
       </c>
       <c r="D210">
-        <v>9.869219437562444</v>
+        <v>9.86922036373471</v>
       </c>
       <c r="E210">
-        <v>10.16227912902832</v>
+        <v>10.16228008270264</v>
       </c>
       <c r="F210">
         <v>1913704</v>
@@ -6438,16 +6438,16 @@
         <v>44536</v>
       </c>
       <c r="B211">
-        <v>10.12780263142002</v>
+        <v>10.12780167936631</v>
       </c>
       <c r="C211">
-        <v>10.50705713766211</v>
+        <v>10.50705614995697</v>
       </c>
       <c r="D211">
-        <v>9.826123421828832</v>
+        <v>9.82612249813417</v>
       </c>
       <c r="E211">
-        <v>10.14504241943359</v>
+        <v>10.14504146575928</v>
       </c>
       <c r="F211">
         <v>2021553</v>
@@ -6464,16 +6464,16 @@
         <v>44537</v>
       </c>
       <c r="B212">
-        <v>10.26571128541605</v>
+        <v>10.26571224069446</v>
       </c>
       <c r="C212">
-        <v>10.80873408216471</v>
+        <v>10.80873508797426</v>
       </c>
       <c r="D212">
-        <v>10.12780050902852</v>
+        <v>10.12780145147361</v>
       </c>
       <c r="E212">
-        <v>10.24847316741943</v>
+        <v>10.24847412109375</v>
       </c>
       <c r="F212">
         <v>3095174</v>
@@ -6542,16 +6542,16 @@
         <v>44540</v>
       </c>
       <c r="B215">
-        <v>11.49586143712427</v>
+        <v>11.49586049656385</v>
       </c>
       <c r="C215">
-        <v>11.82533153754257</v>
+        <v>11.82533057002579</v>
       </c>
       <c r="D215">
-        <v>11.34448342246273</v>
+        <v>11.34448249428766</v>
       </c>
       <c r="E215">
-        <v>11.65614414215088</v>
+        <v>11.65614318847656</v>
       </c>
       <c r="F215">
         <v>3272354</v>
@@ -6620,16 +6620,16 @@
         <v>44545</v>
       </c>
       <c r="B218">
-        <v>11.38010046025896</v>
+        <v>11.38010138289008</v>
       </c>
       <c r="C218">
-        <v>11.87875877903076</v>
+        <v>11.87875974209015</v>
       </c>
       <c r="D218">
-        <v>11.29105442413245</v>
+        <v>11.29105533954426</v>
       </c>
       <c r="E218">
-        <v>11.76299953460693</v>
+        <v>11.76300048828125</v>
       </c>
       <c r="F218">
         <v>3122034</v>
@@ -6672,16 +6672,16 @@
         <v>44547</v>
       </c>
       <c r="B220">
-        <v>11.68285884038955</v>
+        <v>11.68285788525916</v>
       </c>
       <c r="C220">
-        <v>11.70957205017819</v>
+        <v>11.70957109286386</v>
       </c>
       <c r="D220">
-        <v>11.39791047595013</v>
+        <v>11.39790954411565</v>
       </c>
       <c r="E220">
-        <v>11.66504859924316</v>
+        <v>11.66504764556885</v>
       </c>
       <c r="F220">
         <v>2659218</v>
@@ -6724,16 +6724,16 @@
         <v>44551</v>
       </c>
       <c r="B222">
-        <v>11.31776994815759</v>
+        <v>11.31776898539337</v>
       </c>
       <c r="C222">
-        <v>11.54038549747834</v>
+        <v>11.54038451577697</v>
       </c>
       <c r="D222">
-        <v>10.97939427875915</v>
+        <v>10.9793933447794</v>
       </c>
       <c r="E222">
-        <v>11.21091365814209</v>
+        <v>11.21091270446777</v>
       </c>
       <c r="F222">
         <v>1915833</v>
@@ -6880,16 +6880,16 @@
         <v>44560</v>
       </c>
       <c r="B228">
-        <v>10.22250024474962</v>
+        <v>10.22250115862115</v>
       </c>
       <c r="C228">
-        <v>10.66773128509521</v>
+        <v>10.66773223876953</v>
       </c>
       <c r="D228">
-        <v>10.07112138115409</v>
+        <v>10.07112228149264</v>
       </c>
       <c r="E228">
-        <v>10.66773128509521</v>
+        <v>10.66773223876953</v>
       </c>
       <c r="F228">
         <v>3325771</v>
@@ -6932,16 +6932,16 @@
         <v>44565</v>
       </c>
       <c r="B230">
-        <v>10.18688251327322</v>
+        <v>10.18688150588325</v>
       </c>
       <c r="C230">
-        <v>10.25812003780606</v>
+        <v>10.25811902337135</v>
       </c>
       <c r="D230">
-        <v>9.572464028811883</v>
+        <v>9.572463082182308</v>
       </c>
       <c r="E230">
-        <v>9.643701553344727</v>
+        <v>9.64370059967041</v>
       </c>
       <c r="F230">
         <v>4143150</v>
@@ -6958,16 +6958,16 @@
         <v>44566</v>
       </c>
       <c r="B231">
-        <v>9.661508939820925</v>
+        <v>9.661509974557578</v>
       </c>
       <c r="C231">
-        <v>9.661508939820925</v>
+        <v>9.661509974557578</v>
       </c>
       <c r="D231">
-        <v>8.851189079539051</v>
+        <v>8.851190027491366</v>
       </c>
       <c r="E231">
-        <v>8.904616355895996</v>
+        <v>8.904617309570312</v>
       </c>
       <c r="F231">
         <v>5451524</v>
@@ -6984,16 +6984,16 @@
         <v>44567</v>
       </c>
       <c r="B232">
-        <v>8.922427204289841</v>
+        <v>8.922426293344408</v>
       </c>
       <c r="C232">
-        <v>9.340943336486816</v>
+        <v>9.3409423828125</v>
       </c>
       <c r="D232">
-        <v>8.762143642741814</v>
+        <v>8.762142748160715</v>
       </c>
       <c r="E232">
-        <v>9.340943336486816</v>
+        <v>9.3409423828125</v>
       </c>
       <c r="F232">
         <v>4969753</v>
@@ -7036,16 +7036,16 @@
         <v>44571</v>
       </c>
       <c r="B234">
-        <v>9.216279295160199</v>
+        <v>9.216280276326161</v>
       </c>
       <c r="C234">
-        <v>9.216279295160199</v>
+        <v>9.216280276326161</v>
       </c>
       <c r="D234">
-        <v>8.682001336373959</v>
+        <v>8.68200226066064</v>
       </c>
       <c r="E234">
-        <v>8.95804500579834</v>
+        <v>8.958045959472656</v>
       </c>
       <c r="F234">
         <v>3048446</v>
@@ -7062,16 +7062,16 @@
         <v>44572</v>
       </c>
       <c r="B235">
-        <v>8.904616769592897</v>
+        <v>8.904617702738031</v>
       </c>
       <c r="C235">
-        <v>9.305325234361764</v>
+        <v>9.305326209498505</v>
       </c>
       <c r="D235">
-        <v>8.904616769592897</v>
+        <v>8.904617702738031</v>
       </c>
       <c r="E235">
-        <v>9.100518226623535</v>
+        <v>9.100519180297852</v>
       </c>
       <c r="F235">
         <v>1168089</v>
@@ -7088,16 +7088,16 @@
         <v>44573</v>
       </c>
       <c r="B236">
-        <v>9.305326255721011</v>
+        <v>9.305324411891693</v>
       </c>
       <c r="C236">
-        <v>9.821794024791206</v>
+        <v>9.821792078624968</v>
       </c>
       <c r="D236">
-        <v>9.020377868061811</v>
+        <v>9.020376080694369</v>
       </c>
       <c r="E236">
-        <v>9.62589168548584</v>
+        <v>9.625889778137207</v>
       </c>
       <c r="F236">
         <v>2757539</v>
@@ -7140,16 +7140,16 @@
         <v>44575</v>
       </c>
       <c r="B238">
-        <v>9.109424983792309</v>
+        <v>9.109424031978746</v>
       </c>
       <c r="C238">
-        <v>9.15394757859279</v>
+        <v>9.153946622127208</v>
       </c>
       <c r="D238">
-        <v>8.72652670895485</v>
+        <v>8.726525797149057</v>
       </c>
       <c r="E238">
-        <v>9.127233505249023</v>
+        <v>9.127232551574707</v>
       </c>
       <c r="F238">
         <v>2170250</v>
@@ -7192,16 +7192,16 @@
         <v>44579</v>
       </c>
       <c r="B240">
-        <v>8.904616876346521</v>
+        <v>8.904617855478282</v>
       </c>
       <c r="C240">
-        <v>9.145042646708081</v>
+        <v>9.145043652276522</v>
       </c>
       <c r="D240">
-        <v>8.566241237067711</v>
+        <v>8.566242178992445</v>
       </c>
       <c r="E240">
-        <v>8.673096656799316</v>
+        <v>8.673097610473633</v>
       </c>
       <c r="F240">
         <v>2291580</v>
@@ -7218,16 +7218,16 @@
         <v>44580</v>
       </c>
       <c r="B241">
-        <v>8.673097306301804</v>
+        <v>8.673096376493222</v>
       </c>
       <c r="C241">
-        <v>9.055996424464775</v>
+        <v>9.055995453607089</v>
       </c>
       <c r="D241">
-        <v>8.655288785656539</v>
+        <v>8.655287857757139</v>
       </c>
       <c r="E241">
-        <v>8.895712852478027</v>
+        <v>8.895711898803711</v>
       </c>
       <c r="F241">
         <v>1675201</v>
@@ -7322,16 +7322,16 @@
         <v>44586</v>
       </c>
       <c r="B245">
-        <v>9.803983382701681</v>
+        <v>9.803984292576361</v>
       </c>
       <c r="C245">
-        <v>10.36497453422176</v>
+        <v>10.36497549616014</v>
       </c>
       <c r="D245">
-        <v>9.795078692933716</v>
+        <v>9.795079601981982</v>
       </c>
       <c r="E245">
-        <v>10.27592849731445</v>
+        <v>10.27592945098877</v>
       </c>
       <c r="F245">
         <v>2635195</v>
@@ -7348,16 +7348,16 @@
         <v>44587</v>
       </c>
       <c r="B246">
-        <v>10.24030984753136</v>
+        <v>10.2403089313029</v>
       </c>
       <c r="C246">
-        <v>10.96158370102786</v>
+        <v>10.96158272026506</v>
       </c>
       <c r="D246">
-        <v>10.19578639821636</v>
+        <v>10.19578548597154</v>
       </c>
       <c r="E246">
-        <v>10.65882682800293</v>
+        <v>10.65882587432861</v>
       </c>
       <c r="F246">
         <v>3425105</v>
@@ -7400,16 +7400,16 @@
         <v>44589</v>
       </c>
       <c r="B248">
-        <v>10.64101721608912</v>
+        <v>10.64101816737525</v>
       </c>
       <c r="C248">
-        <v>10.71225387266638</v>
+        <v>10.71225483032093</v>
       </c>
       <c r="D248">
-        <v>10.10674013982888</v>
+        <v>10.10674104335168</v>
       </c>
       <c r="E248">
-        <v>10.66773128509521</v>
+        <v>10.66773223876953</v>
       </c>
       <c r="F248">
         <v>1431224</v>
@@ -7504,16 +7504,16 @@
         <v>44595</v>
       </c>
       <c r="B252">
-        <v>11.08624910797921</v>
+        <v>11.08624813952523</v>
       </c>
       <c r="C252">
-        <v>11.31776933560398</v>
+        <v>11.31776834692524</v>
       </c>
       <c r="D252">
-        <v>10.70335086590375</v>
+        <v>10.70334993089836</v>
       </c>
       <c r="E252">
-        <v>10.91706085205078</v>
+        <v>10.91705989837646</v>
       </c>
       <c r="F252">
         <v>1397774</v>
@@ -7582,16 +7582,16 @@
         <v>44600</v>
       </c>
       <c r="B255">
-        <v>10.65882633499245</v>
+        <v>10.65882730322672</v>
       </c>
       <c r="C255">
-        <v>10.73006385060144</v>
+        <v>10.73006482530684</v>
       </c>
       <c r="D255">
-        <v>10.34716392574773</v>
+        <v>10.34716486567098</v>
       </c>
       <c r="E255">
-        <v>10.49854278564453</v>
+        <v>10.49854373931885</v>
       </c>
       <c r="F255">
         <v>1782745</v>
@@ -7660,16 +7660,16 @@
         <v>44603</v>
       </c>
       <c r="B258">
-        <v>10.43621067576198</v>
+        <v>10.43621259621949</v>
       </c>
       <c r="C258">
-        <v>10.7656807378026</v>
+        <v>10.76568271888874</v>
       </c>
       <c r="D258">
-        <v>10.07112099563776</v>
+        <v>10.07112284891195</v>
       </c>
       <c r="E258">
-        <v>10.36497402191162</v>
+        <v>10.36497592926025</v>
       </c>
       <c r="F258">
         <v>2967053</v>
@@ -7764,16 +7764,16 @@
         <v>44609</v>
       </c>
       <c r="B262">
-        <v>11.00610760133832</v>
+        <v>11.0061066247505</v>
       </c>
       <c r="C262">
-        <v>11.11296302330056</v>
+        <v>11.1129620372313</v>
       </c>
       <c r="D262">
-        <v>10.67663664522371</v>
+        <v>10.67663569787033</v>
       </c>
       <c r="E262">
-        <v>10.74787330627441</v>
+        <v>10.7478723526001</v>
       </c>
       <c r="F262">
         <v>3533562</v>
@@ -7790,16 +7790,16 @@
         <v>44610</v>
       </c>
       <c r="B263">
-        <v>10.84582606142625</v>
+        <v>10.84582506607463</v>
       </c>
       <c r="C263">
-        <v>10.84582606142625</v>
+        <v>10.84582506607463</v>
       </c>
       <c r="D263">
-        <v>9.937554446996604</v>
+        <v>9.937553534999594</v>
       </c>
       <c r="E263">
-        <v>10.39169025421143</v>
+        <v>10.39168930053711</v>
       </c>
       <c r="F263">
         <v>12813814</v>
@@ -7842,16 +7842,16 @@
         <v>44614</v>
       </c>
       <c r="B265">
-        <v>9.964266237583722</v>
+        <v>9.964267172869938</v>
       </c>
       <c r="C265">
-        <v>10.27592866294116</v>
+        <v>10.27592962748126</v>
       </c>
       <c r="D265">
-        <v>9.803983540721605</v>
+        <v>9.803984460963042</v>
       </c>
       <c r="E265">
-        <v>10.1601676940918</v>
+        <v>10.16016864776611</v>
       </c>
       <c r="F265">
         <v>6936571</v>
@@ -7946,16 +7946,16 @@
         <v>44622</v>
       </c>
       <c r="B269">
-        <v>9.759459935845957</v>
+        <v>9.759460867420852</v>
       </c>
       <c r="C269">
-        <v>10.08002618524084</v>
+        <v>10.08002714741492</v>
       </c>
       <c r="D269">
-        <v>9.679318588690318</v>
+        <v>9.679319512615439</v>
       </c>
       <c r="E269">
-        <v>9.99098014831543</v>
+        <v>9.990981101989746</v>
       </c>
       <c r="F269">
         <v>1474809</v>
@@ -7972,16 +7972,16 @@
         <v>44623</v>
       </c>
       <c r="B270">
-        <v>10.29373706515625</v>
+        <v>10.29373804077345</v>
       </c>
       <c r="C270">
-        <v>10.60539862620393</v>
+        <v>10.60539963135971</v>
       </c>
       <c r="D270">
-        <v>9.982076364880903</v>
+        <v>9.982077310959601</v>
       </c>
       <c r="E270">
-        <v>10.06221771240234</v>
+        <v>10.06221866607666</v>
       </c>
       <c r="F270">
         <v>3265562</v>
@@ -7998,16 +7998,16 @@
         <v>44624</v>
       </c>
       <c r="B271">
-        <v>9.928647582845581</v>
+        <v>9.928646609975635</v>
       </c>
       <c r="C271">
-        <v>10.03550386291252</v>
+        <v>10.03550287957213</v>
       </c>
       <c r="D271">
-        <v>9.323133827100417</v>
+        <v>9.323132913562432</v>
       </c>
       <c r="E271">
-        <v>9.732746124267578</v>
+        <v>9.732745170593262</v>
       </c>
       <c r="F271">
         <v>3245493</v>
@@ -8050,16 +8050,16 @@
         <v>44628</v>
       </c>
       <c r="B273">
-        <v>9.109423476086073</v>
+        <v>9.109424411473364</v>
       </c>
       <c r="C273">
-        <v>9.314228755506775</v>
+        <v>9.314229711924186</v>
       </c>
       <c r="D273">
-        <v>8.895711785479962</v>
+        <v>8.895712698922594</v>
       </c>
       <c r="E273">
-        <v>9.287514686584473</v>
+        <v>9.287515640258789</v>
       </c>
       <c r="F273">
         <v>2260563</v>
@@ -8076,16 +8076,16 @@
         <v>44629</v>
       </c>
       <c r="B274">
-        <v>9.332039425071841</v>
+        <v>9.332040346224618</v>
       </c>
       <c r="C274">
-        <v>9.803983693892384</v>
+        <v>9.803984661630132</v>
       </c>
       <c r="D274">
-        <v>9.23408783451513</v>
+        <v>9.234088745999241</v>
       </c>
       <c r="E274">
-        <v>9.66150951385498</v>
+        <v>9.661510467529297</v>
       </c>
       <c r="F274">
         <v>2821903</v>
@@ -8154,16 +8154,16 @@
         <v>44634</v>
       </c>
       <c r="B277">
-        <v>9.002568860732817</v>
+        <v>9.002567922829328</v>
       </c>
       <c r="C277">
-        <v>9.269706991364783</v>
+        <v>9.269706025630374</v>
       </c>
       <c r="D277">
-        <v>8.949140718142987</v>
+        <v>8.949139785805736</v>
       </c>
       <c r="E277">
-        <v>9.153946876525879</v>
+        <v>9.153945922851562</v>
       </c>
       <c r="F277">
         <v>3142307</v>
@@ -8206,16 +8206,16 @@
         <v>44636</v>
       </c>
       <c r="B279">
-        <v>9.349848026615728</v>
+        <v>9.349847072032276</v>
       </c>
       <c r="C279">
-        <v>9.63479638919614</v>
+        <v>9.634795405520558</v>
       </c>
       <c r="D279">
-        <v>8.966949794162028</v>
+        <v>8.96694887867101</v>
       </c>
       <c r="E279">
-        <v>9.340943336486816</v>
+        <v>9.3409423828125</v>
       </c>
       <c r="F279">
         <v>2215964</v>
@@ -8232,16 +8232,16 @@
         <v>44637</v>
       </c>
       <c r="B280">
-        <v>9.394371939024586</v>
+        <v>9.394371010006699</v>
       </c>
       <c r="C280">
-        <v>9.70603266576615</v>
+        <v>9.706031705927852</v>
       </c>
       <c r="D280">
-        <v>9.011472826977769</v>
+        <v>9.011471935825119</v>
       </c>
       <c r="E280">
-        <v>9.643701553344727</v>
+        <v>9.64370059967041</v>
       </c>
       <c r="F280">
         <v>2645230</v>
@@ -8284,16 +8284,16 @@
         <v>44641</v>
       </c>
       <c r="B282">
-        <v>9.866316944502081</v>
+        <v>9.866316006905651</v>
       </c>
       <c r="C282">
-        <v>10.16907383680167</v>
+        <v>10.16907287043424</v>
       </c>
       <c r="D282">
-        <v>9.803984111492747</v>
+        <v>9.803983179819806</v>
       </c>
       <c r="E282">
-        <v>10.03550434112549</v>
+        <v>10.03550338745117</v>
       </c>
       <c r="F282">
         <v>1800179</v>
@@ -8336,16 +8336,16 @@
         <v>44643</v>
       </c>
       <c r="B284">
-        <v>10.42730828326176</v>
+        <v>10.42730735956219</v>
       </c>
       <c r="C284">
-        <v>10.76568222045898</v>
+        <v>10.76568126678467</v>
       </c>
       <c r="D284">
-        <v>10.24031064239616</v>
+        <v>10.24030973526171</v>
       </c>
       <c r="E284">
-        <v>10.76568222045898</v>
+        <v>10.76568126678467</v>
       </c>
       <c r="F284">
         <v>2504946</v>
@@ -8362,16 +8362,16 @@
         <v>44644</v>
       </c>
       <c r="B285">
-        <v>10.73006381912257</v>
+        <v>10.73006474963074</v>
       </c>
       <c r="C285">
-        <v>11.13077053938606</v>
+        <v>11.13077150464341</v>
       </c>
       <c r="D285">
-        <v>10.56087558081987</v>
+        <v>10.56087649665609</v>
       </c>
       <c r="E285">
-        <v>10.99720191955566</v>
+        <v>10.99720287322998</v>
       </c>
       <c r="F285">
         <v>1712400</v>
@@ -8388,16 +8388,16 @@
         <v>44645</v>
       </c>
       <c r="B286">
-        <v>11.06843807697479</v>
+        <v>11.06843901703595</v>
       </c>
       <c r="C286">
-        <v>11.30886295910499</v>
+        <v>11.30886391958585</v>
       </c>
       <c r="D286">
-        <v>10.82801319484459</v>
+        <v>10.82801411448606</v>
       </c>
       <c r="E286">
-        <v>11.22872161865234</v>
+        <v>11.22872257232666</v>
       </c>
       <c r="F286">
         <v>2057131</v>
@@ -8414,16 +8414,16 @@
         <v>44648</v>
       </c>
       <c r="B287">
-        <v>11.21091340967274</v>
+        <v>11.21091152773555</v>
       </c>
       <c r="C287">
-        <v>11.61162190603258</v>
+        <v>11.61161995682984</v>
       </c>
       <c r="D287">
-        <v>11.18419933776093</v>
+        <v>11.18419746030814</v>
       </c>
       <c r="E287">
-        <v>11.36229228973389</v>
+        <v>11.36229038238525</v>
       </c>
       <c r="F287">
         <v>1829574</v>
@@ -8440,16 +8440,16 @@
         <v>44649</v>
       </c>
       <c r="B288">
-        <v>11.46024245962314</v>
+        <v>11.46024153678194</v>
       </c>
       <c r="C288">
-        <v>12.03013832838284</v>
+        <v>12.03013735965052</v>
       </c>
       <c r="D288">
-        <v>11.32667296743733</v>
+        <v>11.32667205535188</v>
       </c>
       <c r="E288">
-        <v>11.84314155578613</v>
+        <v>11.84314060211182</v>
       </c>
       <c r="F288">
         <v>4333811</v>
@@ -8466,16 +8466,16 @@
         <v>44650</v>
       </c>
       <c r="B289">
-        <v>11.8520456086378</v>
+        <v>11.85204463893535</v>
       </c>
       <c r="C289">
-        <v>11.96780572261141</v>
+        <v>11.96780474343779</v>
       </c>
       <c r="D289">
-        <v>11.50476612748934</v>
+        <v>11.50476518620037</v>
       </c>
       <c r="E289">
-        <v>11.65614414215088</v>
+        <v>11.65614318847656</v>
       </c>
       <c r="F289">
         <v>2393651</v>
@@ -8518,16 +8518,16 @@
         <v>44652</v>
       </c>
       <c r="B291">
-        <v>11.44243310763727</v>
+        <v>11.44243217784105</v>
       </c>
       <c r="C291">
-        <v>11.74518999277702</v>
+        <v>11.74518903837919</v>
       </c>
       <c r="D291">
-        <v>11.24653164435698</v>
+        <v>11.24653073047944</v>
       </c>
       <c r="E291">
-        <v>11.73628616333008</v>
+        <v>11.73628520965576</v>
       </c>
       <c r="F291">
         <v>2500385</v>
@@ -8544,16 +8544,16 @@
         <v>44655</v>
       </c>
       <c r="B292">
-        <v>11.63833543168993</v>
+        <v>11.63833448597496</v>
       </c>
       <c r="C292">
-        <v>11.82533134397853</v>
+        <v>11.82533038306852</v>
       </c>
       <c r="D292">
-        <v>11.31776916611154</v>
+        <v>11.31776824644533</v>
       </c>
       <c r="E292">
-        <v>11.73628616333008</v>
+        <v>11.73628520965576</v>
       </c>
       <c r="F292">
         <v>2094330</v>
@@ -8622,16 +8622,16 @@
         <v>44658</v>
       </c>
       <c r="B295">
-        <v>10.96158316185567</v>
+        <v>10.96158411244113</v>
       </c>
       <c r="C295">
-        <v>11.13967522881106</v>
+        <v>11.13967619484063</v>
       </c>
       <c r="D295">
-        <v>10.83691837067797</v>
+        <v>10.83691931045254</v>
       </c>
       <c r="E295">
-        <v>10.99720191955566</v>
+        <v>10.99720287322998</v>
       </c>
       <c r="F295">
         <v>1517584</v>
@@ -8674,16 +8674,16 @@
         <v>44662</v>
       </c>
       <c r="B297">
-        <v>10.73896764777527</v>
+        <v>10.73896857905558</v>
       </c>
       <c r="C297">
-        <v>11.07734326360836</v>
+        <v>11.07734422423252</v>
       </c>
       <c r="D297">
-        <v>10.62320840679487</v>
+        <v>10.62320932803657</v>
       </c>
       <c r="E297">
-        <v>10.99720191955566</v>
+        <v>10.99720287322998</v>
       </c>
       <c r="F297">
         <v>2558465</v>
@@ -8700,16 +8700,16 @@
         <v>44663</v>
       </c>
       <c r="B298">
-        <v>10.90815541756995</v>
+        <v>10.90815636199277</v>
       </c>
       <c r="C298">
-        <v>11.38010053097719</v>
+        <v>11.3801015162608</v>
       </c>
       <c r="D298">
-        <v>10.86363282961618</v>
+        <v>10.86363377018427</v>
       </c>
       <c r="E298">
-        <v>11.01501083374023</v>
+        <v>11.01501178741455</v>
       </c>
       <c r="F298">
         <v>1608302</v>
@@ -8726,16 +8726,16 @@
         <v>44664</v>
       </c>
       <c r="B299">
-        <v>11.08624886395592</v>
+        <v>11.08624790874712</v>
       </c>
       <c r="C299">
-        <v>11.20200897522026</v>
+        <v>11.20200801003739</v>
       </c>
       <c r="D299">
-        <v>10.83691926111388</v>
+        <v>10.83691832738772</v>
       </c>
       <c r="E299">
-        <v>11.06843948364258</v>
+        <v>11.06843852996826</v>
       </c>
       <c r="F299">
         <v>1276242</v>
@@ -8778,16 +8778,16 @@
         <v>44669</v>
       </c>
       <c r="B301">
-        <v>11.29105358105501</v>
+        <v>11.29105454002329</v>
       </c>
       <c r="C301">
-        <v>11.46024095098529</v>
+        <v>11.46024192432294</v>
       </c>
       <c r="D301">
-        <v>11.13077003937746</v>
+        <v>11.13077098473258</v>
       </c>
       <c r="E301">
-        <v>11.22872161865234</v>
+        <v>11.22872257232666</v>
       </c>
       <c r="F301">
         <v>2677159</v>
@@ -8934,16 +8934,16 @@
         <v>44678</v>
       </c>
       <c r="B307">
-        <v>10.8636333315839</v>
+        <v>10.863632395556</v>
       </c>
       <c r="C307">
-        <v>11.26434180631696</v>
+        <v>11.26434083576339</v>
       </c>
       <c r="D307">
-        <v>10.8636333315839</v>
+        <v>10.863632395556</v>
       </c>
       <c r="E307">
-        <v>11.06843948364258</v>
+        <v>11.06843852996826</v>
       </c>
       <c r="F307">
         <v>2204206</v>
@@ -8960,16 +8960,16 @@
         <v>44679</v>
       </c>
       <c r="B308">
-        <v>11.29105492020172</v>
+        <v>11.29105580287257</v>
       </c>
       <c r="C308">
-        <v>12.4219410920064</v>
+        <v>12.42194206308354</v>
       </c>
       <c r="D308">
-        <v>10.89925199972243</v>
+        <v>10.89925285176434</v>
       </c>
       <c r="E308">
-        <v>12.19932556152344</v>
+        <v>12.19932651519775</v>
       </c>
       <c r="F308">
         <v>5881398</v>
@@ -8986,16 +8986,16 @@
         <v>44680</v>
       </c>
       <c r="B309">
-        <v>12.19932553974081</v>
+        <v>12.19932458327387</v>
       </c>
       <c r="C309">
-        <v>12.37741848027261</v>
+        <v>12.37741750984259</v>
       </c>
       <c r="D309">
-        <v>11.96780531959013</v>
+        <v>11.96780438127513</v>
       </c>
       <c r="E309">
-        <v>12.16370677947998</v>
+        <v>12.16370582580566</v>
       </c>
       <c r="F309">
         <v>6890958</v>
@@ -9012,16 +9012,16 @@
         <v>44683</v>
       </c>
       <c r="B310">
-        <v>11.97671039177477</v>
+        <v>11.97670943525583</v>
       </c>
       <c r="C310">
-        <v>12.27056259098496</v>
+        <v>12.27056161099754</v>
       </c>
       <c r="D310">
-        <v>11.82533151660882</v>
+        <v>11.82533057217975</v>
       </c>
       <c r="E310">
-        <v>11.9410924911499</v>
+        <v>11.94109153747559</v>
       </c>
       <c r="F310">
         <v>3385270</v>
@@ -9038,16 +9038,16 @@
         <v>44684</v>
       </c>
       <c r="B311">
-        <v>11.8876629306832</v>
+        <v>11.88766389010685</v>
       </c>
       <c r="C311">
-        <v>12.03013709850059</v>
+        <v>12.03013806942298</v>
       </c>
       <c r="D311">
-        <v>11.75409431292494</v>
+        <v>11.7540952615686</v>
       </c>
       <c r="E311">
-        <v>11.81642627716064</v>
+        <v>11.81642723083496</v>
       </c>
       <c r="F311">
         <v>2034324</v>
@@ -9090,16 +9090,16 @@
         <v>44686</v>
       </c>
       <c r="B313">
-        <v>12.27946719766936</v>
+        <v>12.27946623138219</v>
       </c>
       <c r="C313">
-        <v>12.27946719766936</v>
+        <v>12.27946623138219</v>
       </c>
       <c r="D313">
-        <v>11.88766426805861</v>
+        <v>11.88766333260292</v>
       </c>
       <c r="E313">
-        <v>12.11918449401855</v>
+        <v>12.11918354034424</v>
       </c>
       <c r="F313">
         <v>3999622</v>
@@ -9142,16 +9142,16 @@
         <v>44690</v>
       </c>
       <c r="B315">
-        <v>11.90547469757537</v>
+        <v>11.90547370838789</v>
       </c>
       <c r="C315">
-        <v>11.91437852723236</v>
+        <v>11.91437753730509</v>
       </c>
       <c r="D315">
-        <v>11.33557881395691</v>
+        <v>11.33557787212024</v>
       </c>
       <c r="E315">
-        <v>11.47805213928223</v>
+        <v>11.47805118560791</v>
       </c>
       <c r="F315">
         <v>3635836</v>
@@ -9168,16 +9168,16 @@
         <v>44691</v>
       </c>
       <c r="B316">
-        <v>11.60271618820735</v>
+        <v>11.60271713246087</v>
       </c>
       <c r="C316">
-        <v>11.90547392152653</v>
+        <v>11.9054748904191</v>
       </c>
       <c r="D316">
-        <v>11.50476546064139</v>
+        <v>11.50476639692346</v>
       </c>
       <c r="E316">
-        <v>11.71847629547119</v>
+        <v>11.71847724914551</v>
       </c>
       <c r="F316">
         <v>2926103</v>
@@ -9194,16 +9194,16 @@
         <v>44692</v>
       </c>
       <c r="B317">
-        <v>11.71847726883464</v>
+        <v>11.71847631805027</v>
       </c>
       <c r="C317">
-        <v>11.9589021931815</v>
+        <v>11.95890122289014</v>
       </c>
       <c r="D317">
-        <v>11.48695789584878</v>
+        <v>11.48695696384884</v>
       </c>
       <c r="E317">
-        <v>11.75409603118896</v>
+        <v>11.75409507751465</v>
       </c>
       <c r="F317">
         <v>2884545</v>
@@ -9220,16 +9220,16 @@
         <v>44693</v>
       </c>
       <c r="B318">
-        <v>11.56709886978374</v>
+        <v>11.56709794872572</v>
       </c>
       <c r="C318">
-        <v>12.19932585536407</v>
+        <v>12.19932488396345</v>
       </c>
       <c r="D318">
-        <v>11.54928862842018</v>
+        <v>11.54928770878034</v>
       </c>
       <c r="E318">
-        <v>11.97671031951904</v>
+        <v>11.97670936584473</v>
       </c>
       <c r="F318">
         <v>2138727</v>
@@ -9246,16 +9246,16 @@
         <v>44694</v>
       </c>
       <c r="B319">
-        <v>12.0390428557302</v>
+        <v>12.03904378600991</v>
       </c>
       <c r="C319">
-        <v>12.60893785600866</v>
+        <v>12.60893883032525</v>
       </c>
       <c r="D319">
-        <v>11.95890150581172</v>
+        <v>11.95890242989876</v>
       </c>
       <c r="E319">
-        <v>12.34179973602295</v>
+        <v>12.34180068969727</v>
       </c>
       <c r="F319">
         <v>2912723</v>
@@ -9298,16 +9298,16 @@
         <v>44698</v>
       </c>
       <c r="B321">
-        <v>12.55551159786813</v>
+        <v>12.55551065423245</v>
       </c>
       <c r="C321">
-        <v>12.83155443039014</v>
+        <v>12.83155346600788</v>
       </c>
       <c r="D321">
-        <v>12.47537024142915</v>
+        <v>12.47536930381666</v>
       </c>
       <c r="E321">
-        <v>12.68908023834229</v>
+        <v>12.68907928466797</v>
       </c>
       <c r="F321">
         <v>4223023</v>
@@ -9324,16 +9324,16 @@
         <v>44699</v>
       </c>
       <c r="B322">
-        <v>12.51989194318841</v>
+        <v>12.51989288945947</v>
       </c>
       <c r="C322">
-        <v>12.78703092666003</v>
+        <v>12.78703189312184</v>
       </c>
       <c r="D322">
-        <v>12.45755997279029</v>
+        <v>12.45756091435021</v>
       </c>
       <c r="E322">
-        <v>12.61784267425537</v>
+        <v>12.61784362792969</v>
       </c>
       <c r="F322">
         <v>3728683</v>
@@ -9376,16 +9376,16 @@
         <v>44701</v>
       </c>
       <c r="B324">
-        <v>13.02745367966005</v>
+        <v>13.02745463138277</v>
       </c>
       <c r="C324">
-        <v>13.2144512937503</v>
+        <v>13.21445225913416</v>
       </c>
       <c r="D324">
-        <v>12.84936247639354</v>
+        <v>12.84936341510577</v>
       </c>
       <c r="E324">
-        <v>13.05416774749756</v>
+        <v>13.05416870117188</v>
       </c>
       <c r="F324">
         <v>4482610</v>
@@ -9402,16 +9402,16 @@
         <v>44704</v>
       </c>
       <c r="B325">
-        <v>13.07197849731916</v>
+        <v>13.07197754623631</v>
       </c>
       <c r="C325">
-        <v>13.27678465067983</v>
+        <v>13.27678368469582</v>
       </c>
       <c r="D325">
-        <v>13.0007418363853</v>
+        <v>13.00074089048544</v>
       </c>
       <c r="E325">
-        <v>13.1075963973999</v>
+        <v>13.10759544372559</v>
       </c>
       <c r="F325">
         <v>3535792</v>
@@ -9428,16 +9428,16 @@
         <v>44705</v>
       </c>
       <c r="B326">
-        <v>13.0808837753624</v>
+        <v>13.080882801129</v>
       </c>
       <c r="C326">
-        <v>13.17883451133782</v>
+        <v>13.17883352980928</v>
       </c>
       <c r="D326">
-        <v>12.55551133303158</v>
+        <v>12.55551039792668</v>
       </c>
       <c r="E326">
-        <v>12.80484008789062</v>
+        <v>12.80483913421631</v>
       </c>
       <c r="F326">
         <v>3539137</v>
@@ -9506,16 +9506,16 @@
         <v>44708</v>
       </c>
       <c r="B329">
-        <v>13.34802109575867</v>
+        <v>13.34802202889046</v>
       </c>
       <c r="C329">
-        <v>13.9446292665204</v>
+        <v>13.9446302413598</v>
       </c>
       <c r="D329">
-        <v>13.32130702727354</v>
+        <v>13.32130795853781</v>
       </c>
       <c r="E329">
-        <v>13.64187240600586</v>
+        <v>13.64187335968018</v>
       </c>
       <c r="F329">
         <v>4177410</v>
@@ -9532,16 +9532,16 @@
         <v>44711</v>
       </c>
       <c r="B330">
-        <v>13.84668128453534</v>
+        <v>13.84668029125765</v>
       </c>
       <c r="C330">
-        <v>13.91791794940007</v>
+        <v>13.9179169510123</v>
       </c>
       <c r="D330">
-        <v>13.29459476470947</v>
+        <v>13.29459381103516</v>
       </c>
       <c r="E330">
-        <v>13.29459476470947</v>
+        <v>13.29459381103516</v>
       </c>
       <c r="F330">
         <v>1851063</v>
@@ -9584,16 +9584,16 @@
         <v>44713</v>
       </c>
       <c r="B332">
-        <v>13.071978489288</v>
+        <v>13.07197754843187</v>
       </c>
       <c r="C332">
-        <v>13.2678808130874</v>
+        <v>13.2678798581312</v>
       </c>
       <c r="D332">
-        <v>12.76922160453964</v>
+        <v>12.76922068547445</v>
       </c>
       <c r="E332">
-        <v>13.25007057189941</v>
+        <v>13.2500696182251</v>
       </c>
       <c r="F332">
         <v>4014218</v>
@@ -9740,16 +9740,16 @@
         <v>44721</v>
       </c>
       <c r="B338">
-        <v>12.60003505187447</v>
+        <v>12.60003410489253</v>
       </c>
       <c r="C338">
-        <v>12.74250924392232</v>
+        <v>12.74250828623244</v>
       </c>
       <c r="D338">
-        <v>12.3596101217851</v>
+        <v>12.3596091928728</v>
       </c>
       <c r="E338">
-        <v>12.68908023834229</v>
+        <v>12.68907928466797</v>
       </c>
       <c r="F338">
         <v>1444097</v>
@@ -9792,16 +9792,16 @@
         <v>44725</v>
       </c>
       <c r="B340">
-        <v>11.72738187140015</v>
+        <v>11.72738087220438</v>
       </c>
       <c r="C340">
-        <v>12.01232938577875</v>
+        <v>12.01232836230489</v>
       </c>
       <c r="D340">
-        <v>11.04172672663268</v>
+        <v>11.04172578585606</v>
       </c>
       <c r="E340">
-        <v>11.19310474395752</v>
+        <v>11.1931037902832</v>
       </c>
       <c r="F340">
         <v>3958469</v>
@@ -9844,16 +9844,16 @@
         <v>44727</v>
       </c>
       <c r="B342">
-        <v>11.36229187460505</v>
+        <v>11.36229283278488</v>
       </c>
       <c r="C342">
-        <v>11.55819333992274</v>
+        <v>11.5581943146229</v>
       </c>
       <c r="D342">
-        <v>11.13967633835158</v>
+        <v>11.13967727775828</v>
       </c>
       <c r="E342">
-        <v>11.30886459350586</v>
+        <v>11.30886554718018</v>
       </c>
       <c r="F342">
         <v>3158221</v>
@@ -9922,16 +9922,16 @@
         <v>44733</v>
       </c>
       <c r="B345">
-        <v>10.89034655129893</v>
+        <v>10.89034750186425</v>
       </c>
       <c r="C345">
-        <v>11.12186675574124</v>
+        <v>11.12186772651484</v>
       </c>
       <c r="D345">
-        <v>10.78349113853881</v>
+        <v>10.78349207977725</v>
       </c>
       <c r="E345">
-        <v>10.92596530914307</v>
+        <v>10.92596626281738</v>
       </c>
       <c r="F345">
         <v>1967020</v>
@@ -10026,16 +10026,16 @@
         <v>44739</v>
       </c>
       <c r="B349">
-        <v>11.27324649398446</v>
+        <v>11.2732455350077</v>
       </c>
       <c r="C349">
-        <v>11.32667377821978</v>
+        <v>11.32667281469814</v>
       </c>
       <c r="D349">
-        <v>10.91706144291678</v>
+        <v>10.91706051423947</v>
       </c>
       <c r="E349">
-        <v>11.21091365814209</v>
+        <v>11.21091270446777</v>
       </c>
       <c r="F349">
         <v>1685945</v>
@@ -10052,16 +10052,16 @@
         <v>44740</v>
       </c>
       <c r="B350">
-        <v>11.17529470610145</v>
+        <v>11.17529570348589</v>
       </c>
       <c r="C350">
-        <v>11.29105481530808</v>
+        <v>11.291055823024</v>
       </c>
       <c r="D350">
-        <v>10.63211292006184</v>
+        <v>10.63211386896782</v>
       </c>
       <c r="E350">
-        <v>10.68554019927979</v>
+        <v>10.6855411529541</v>
       </c>
       <c r="F350">
         <v>2763519</v>
@@ -10078,16 +10078,16 @@
         <v>44741</v>
       </c>
       <c r="B351">
-        <v>10.77458714880268</v>
+        <v>10.7745861807272</v>
       </c>
       <c r="C351">
-        <v>10.79239566810897</v>
+        <v>10.79239469843343</v>
       </c>
       <c r="D351">
-        <v>10.4718302697827</v>
+        <v>10.47182932890933</v>
       </c>
       <c r="E351">
-        <v>10.61430358886719</v>
+        <v>10.61430263519287</v>
       </c>
       <c r="F351">
         <v>1480384</v>
@@ -10130,16 +10130,16 @@
         <v>44743</v>
       </c>
       <c r="B353">
-        <v>10.23140667369988</v>
+        <v>10.23140573473524</v>
       </c>
       <c r="C353">
-        <v>10.45402223171607</v>
+        <v>10.45402127232138</v>
       </c>
       <c r="D353">
-        <v>10.12455037951054</v>
+        <v>10.1245494503524</v>
       </c>
       <c r="E353">
-        <v>10.39169025421143</v>
+        <v>10.39168930053711</v>
       </c>
       <c r="F353">
         <v>1955465</v>
@@ -10156,16 +10156,16 @@
         <v>44746</v>
       </c>
       <c r="B354">
-        <v>10.35606932020072</v>
+        <v>10.35607029999161</v>
       </c>
       <c r="C354">
-        <v>10.46292387046236</v>
+        <v>10.46292486036279</v>
       </c>
       <c r="D354">
-        <v>10.0800256729126</v>
+        <v>10.08002662658691</v>
       </c>
       <c r="E354">
-        <v>10.0800256729126</v>
+        <v>10.08002662658691</v>
       </c>
       <c r="F354">
         <v>1779400</v>
@@ -10182,16 +10182,16 @@
         <v>44747</v>
       </c>
       <c r="B355">
-        <v>10.10674067552824</v>
+        <v>10.10673971593568</v>
       </c>
       <c r="C355">
-        <v>10.10674067552824</v>
+        <v>10.10673971593568</v>
       </c>
       <c r="D355">
-        <v>9.581368261089764</v>
+        <v>9.581367351379111</v>
       </c>
       <c r="E355">
-        <v>10.04440784454346</v>
+        <v>10.04440689086914</v>
       </c>
       <c r="F355">
         <v>3899578</v>
@@ -10338,16 +10338,16 @@
         <v>44755</v>
       </c>
       <c r="B361">
-        <v>9.608082234323678</v>
+        <v>9.608083182724263</v>
       </c>
       <c r="C361">
-        <v>9.795079003841773</v>
+        <v>9.79507997070055</v>
       </c>
       <c r="D361">
-        <v>9.447799534957413</v>
+        <v>9.447800467536712</v>
       </c>
       <c r="E361">
-        <v>9.66150951385498</v>
+        <v>9.661510467529297</v>
       </c>
       <c r="F361">
         <v>1870727</v>
@@ -10390,16 +10390,16 @@
         <v>44757</v>
       </c>
       <c r="B363">
-        <v>9.786174868033957</v>
+        <v>9.786175829582799</v>
       </c>
       <c r="C363">
-        <v>9.866316215206846</v>
+        <v>9.866317184630041</v>
       </c>
       <c r="D363">
-        <v>9.670414761774305</v>
+        <v>9.67041571194904</v>
       </c>
       <c r="E363">
-        <v>9.706031799316406</v>
+        <v>9.706032752990723</v>
       </c>
       <c r="F363">
         <v>1899514</v>
@@ -10416,16 +10416,16 @@
         <v>44760</v>
       </c>
       <c r="B364">
-        <v>9.616987274951919</v>
+        <v>9.616986351213484</v>
       </c>
       <c r="C364">
-        <v>10.12454946170521</v>
+        <v>10.12454848921402</v>
       </c>
       <c r="D364">
-        <v>9.616987274951919</v>
+        <v>9.616986351213484</v>
       </c>
       <c r="E364">
-        <v>9.928647994995117</v>
+        <v>9.928647041320801</v>
       </c>
       <c r="F364">
         <v>1476836</v>
@@ -10598,16 +10598,16 @@
         <v>44769</v>
       </c>
       <c r="B371">
-        <v>10.56978008101214</v>
+        <v>10.56978099985251</v>
       </c>
       <c r="C371">
-        <v>11.07734396739545</v>
+        <v>11.07734493035881</v>
       </c>
       <c r="D371">
-        <v>10.51635280183999</v>
+        <v>10.51635371603588</v>
       </c>
       <c r="E371">
-        <v>10.97048854827881</v>
+        <v>10.97048950195312</v>
       </c>
       <c r="F371">
         <v>2091898</v>
@@ -10624,16 +10624,16 @@
         <v>44770</v>
       </c>
       <c r="B372">
-        <v>10.6677315528763</v>
+        <v>10.66773064612876</v>
       </c>
       <c r="C372">
-        <v>11.31776875037451</v>
+        <v>11.3177677883744</v>
       </c>
       <c r="D372">
-        <v>10.6677315528763</v>
+        <v>10.66773064612876</v>
       </c>
       <c r="E372">
-        <v>11.21981716156006</v>
+        <v>11.21981620788574</v>
       </c>
       <c r="F372">
         <v>1467207</v>
@@ -10676,16 +10676,16 @@
         <v>44774</v>
       </c>
       <c r="B374">
-        <v>12.15480243787247</v>
+        <v>12.15480342331185</v>
       </c>
       <c r="C374">
-        <v>12.28837192244839</v>
+        <v>12.28837291871678</v>
       </c>
       <c r="D374">
-        <v>11.58490660158161</v>
+        <v>11.5849075408172</v>
       </c>
       <c r="E374">
-        <v>11.76299953460693</v>
+        <v>11.76300048828125</v>
       </c>
       <c r="F374">
         <v>4838693</v>
@@ -10702,16 +10702,16 @@
         <v>44775</v>
       </c>
       <c r="B375">
-        <v>11.89656815841053</v>
+        <v>11.89656912291379</v>
       </c>
       <c r="C375">
-        <v>12.00342357391679</v>
+        <v>12.00342454708326</v>
       </c>
       <c r="D375">
-        <v>11.73628546553729</v>
+        <v>11.73628641704578</v>
       </c>
       <c r="E375">
-        <v>11.76299953460693</v>
+        <v>11.76300048828125</v>
       </c>
       <c r="F375">
         <v>2088249</v>
@@ -10754,16 +10754,16 @@
         <v>44777</v>
       </c>
       <c r="B377">
-        <v>12.06575802287114</v>
+        <v>12.06575714974361</v>
       </c>
       <c r="C377">
-        <v>13.24116775136519</v>
+        <v>13.24116679318022</v>
       </c>
       <c r="D377">
-        <v>12.04794778032611</v>
+        <v>12.0479469084874</v>
       </c>
       <c r="E377">
-        <v>13.17883491516113</v>
+        <v>13.17883396148682</v>
       </c>
       <c r="F377">
         <v>5052363</v>
@@ -10832,16 +10832,16 @@
         <v>44782</v>
       </c>
       <c r="B380">
-        <v>13.9268219813056</v>
+        <v>13.92682100961395</v>
       </c>
       <c r="C380">
-        <v>13.93572667158901</v>
+        <v>13.93572569927608</v>
       </c>
       <c r="D380">
-        <v>13.49049560050783</v>
+        <v>13.49049465925921</v>
       </c>
       <c r="E380">
-        <v>13.66858768463135</v>
+        <v>13.66858673095703</v>
       </c>
       <c r="F380">
         <v>4116999</v>
@@ -10858,16 +10858,16 @@
         <v>44783</v>
       </c>
       <c r="B381">
-        <v>13.89120336193672</v>
+        <v>13.89120241433675</v>
       </c>
       <c r="C381">
-        <v>14.3809578894331</v>
+        <v>14.38095690842412</v>
       </c>
       <c r="D381">
-        <v>13.75763472786715</v>
+        <v>13.75763378937868</v>
       </c>
       <c r="E381">
-        <v>13.98024940490723</v>
+        <v>13.98024845123291</v>
       </c>
       <c r="F381">
         <v>6344215</v>
@@ -10910,16 +10910,16 @@
         <v>44785</v>
       </c>
       <c r="B383">
-        <v>14.06929555137775</v>
+        <v>14.06929648554107</v>
       </c>
       <c r="C383">
-        <v>14.45219377377336</v>
+        <v>14.45219473336009</v>
       </c>
       <c r="D383">
-        <v>14.06929555137775</v>
+        <v>14.06929648554107</v>
       </c>
       <c r="E383">
-        <v>14.3631477355957</v>
+        <v>14.36314868927002</v>
       </c>
       <c r="F383">
         <v>2291478</v>
@@ -10936,16 +10936,16 @@
         <v>44788</v>
       </c>
       <c r="B384">
-        <v>14.24738863938567</v>
+        <v>14.24738767910946</v>
       </c>
       <c r="C384">
-        <v>14.30972061230428</v>
+        <v>14.30971964782688</v>
       </c>
       <c r="D384">
-        <v>14.03367778827557</v>
+        <v>14.03367684240351</v>
       </c>
       <c r="E384">
-        <v>14.14943790435791</v>
+        <v>14.14943695068359</v>
       </c>
       <c r="F384">
         <v>3349490</v>
@@ -11014,16 +11014,16 @@
         <v>44791</v>
       </c>
       <c r="B387">
-        <v>14.24738907342796</v>
+        <v>14.24738811915722</v>
       </c>
       <c r="C387">
-        <v>14.75495128431166</v>
+        <v>14.75495029604509</v>
       </c>
       <c r="D387">
-        <v>13.8199673581865</v>
+        <v>13.81996643254388</v>
       </c>
       <c r="E387">
-        <v>14.23848438262939</v>
+        <v>14.23848342895508</v>
       </c>
       <c r="F387">
         <v>3074090</v>
@@ -11066,16 +11066,16 @@
         <v>44795</v>
       </c>
       <c r="B389">
-        <v>13.2767837548989</v>
+        <v>13.27678472351498</v>
       </c>
       <c r="C389">
-        <v>13.37473447986389</v>
+        <v>13.37473545562602</v>
       </c>
       <c r="D389">
-        <v>12.95621751116649</v>
+        <v>12.95621845639546</v>
       </c>
       <c r="E389">
-        <v>13.07197761535645</v>
+        <v>13.07197856903076</v>
       </c>
       <c r="F389">
         <v>3082199</v>
@@ -11092,16 +11092,16 @@
         <v>44796</v>
       </c>
       <c r="B390">
-        <v>13.19664317206846</v>
+        <v>13.19664219125972</v>
       </c>
       <c r="C390">
-        <v>13.19664317206846</v>
+        <v>13.19664219125972</v>
       </c>
       <c r="D390">
-        <v>12.79593555943077</v>
+        <v>12.79593460840366</v>
       </c>
       <c r="E390">
-        <v>12.83155345916748</v>
+        <v>12.83155250549316</v>
       </c>
       <c r="F390">
         <v>5845922</v>
@@ -11118,16 +11118,16 @@
         <v>44797</v>
       </c>
       <c r="B391">
-        <v>12.83155345247732</v>
+        <v>12.83155250927577</v>
       </c>
       <c r="C391">
-        <v>13.12540650497929</v>
+        <v>13.12540554017765</v>
       </c>
       <c r="D391">
-        <v>12.66236606169213</v>
+        <v>12.66236513092694</v>
       </c>
       <c r="E391">
-        <v>12.97402763366699</v>
+        <v>12.97402667999268</v>
       </c>
       <c r="F391">
         <v>4991546</v>
@@ -11222,16 +11222,16 @@
         <v>44803</v>
       </c>
       <c r="B395">
-        <v>12.79593488628241</v>
+        <v>12.79593584328662</v>
       </c>
       <c r="C395">
-        <v>13.01855040620842</v>
+        <v>13.01855137986199</v>
       </c>
       <c r="D395">
-        <v>12.59112874567405</v>
+        <v>12.59112968736087</v>
       </c>
       <c r="E395">
-        <v>12.75141143798828</v>
+        <v>12.7514123916626</v>
       </c>
       <c r="F395">
         <v>2841466</v>
@@ -11274,16 +11274,16 @@
         <v>44805</v>
       </c>
       <c r="B397">
-        <v>12.70688878433395</v>
+        <v>12.70688971137298</v>
       </c>
       <c r="C397">
-        <v>13.1343095818715</v>
+        <v>13.13431054009329</v>
       </c>
       <c r="D397">
-        <v>12.65346064665905</v>
+        <v>12.6534615698002</v>
       </c>
       <c r="E397">
-        <v>13.07197761535645</v>
+        <v>13.07197856903076</v>
       </c>
       <c r="F397">
         <v>3304080</v>
@@ -11300,16 +11300,16 @@
         <v>44806</v>
       </c>
       <c r="B398">
-        <v>13.07197676979364</v>
+        <v>13.07197773132785</v>
       </c>
       <c r="C398">
-        <v>13.25897351801522</v>
+        <v>13.25897449330433</v>
       </c>
       <c r="D398">
-        <v>12.91169322790924</v>
+        <v>12.91169417765349</v>
       </c>
       <c r="E398">
-        <v>12.96512222290039</v>
+        <v>12.96512317657471</v>
       </c>
       <c r="F398">
         <v>3090207</v>
@@ -11378,16 +11378,16 @@
         <v>44812</v>
       </c>
       <c r="B401">
-        <v>13.08978874208204</v>
+        <v>13.08978775829164</v>
       </c>
       <c r="C401">
-        <v>13.08978874208204</v>
+        <v>13.08978775829164</v>
       </c>
       <c r="D401">
-        <v>12.31508666777877</v>
+        <v>12.31508574221272</v>
       </c>
       <c r="E401">
-        <v>12.68908023834229</v>
+        <v>12.68907928466797</v>
       </c>
       <c r="F401">
         <v>2311852</v>
@@ -11560,16 +11560,16 @@
         <v>44823</v>
       </c>
       <c r="B408">
-        <v>12.88284749396046</v>
+        <v>12.88284844368033</v>
       </c>
       <c r="C408">
-        <v>13.15999294958408</v>
+        <v>13.15999391973504</v>
       </c>
       <c r="D408">
-        <v>12.73086350256026</v>
+        <v>12.73086444107591</v>
       </c>
       <c r="E408">
-        <v>12.93648910522461</v>
+        <v>12.93649005889893</v>
       </c>
       <c r="F408">
         <v>1221893</v>
@@ -11612,16 +11612,16 @@
         <v>44825</v>
       </c>
       <c r="B410">
-        <v>12.47159722662587</v>
+        <v>12.47159624912716</v>
       </c>
       <c r="C410">
-        <v>12.64146204309001</v>
+        <v>12.64146105227763</v>
       </c>
       <c r="D410">
-        <v>12.00670612869919</v>
+        <v>12.00670518763771</v>
       </c>
       <c r="E410">
-        <v>12.16762924194336</v>
+        <v>12.16762828826904</v>
       </c>
       <c r="F410">
         <v>3396829</v>
@@ -11716,16 +11716,16 @@
         <v>44831</v>
       </c>
       <c r="B414">
-        <v>12.04246622042809</v>
+        <v>12.04246719360936</v>
       </c>
       <c r="C414">
-        <v>12.14974857665016</v>
+        <v>12.14974955850118</v>
       </c>
       <c r="D414">
-        <v>11.75637993716923</v>
+        <v>11.75638088723117</v>
       </c>
       <c r="E414">
-        <v>11.80108070373535</v>
+        <v>11.80108165740967</v>
       </c>
       <c r="F414">
         <v>2656202</v>
@@ -11768,16 +11768,16 @@
         <v>44833</v>
       </c>
       <c r="B416">
-        <v>11.95306467369995</v>
+        <v>11.95306561401159</v>
       </c>
       <c r="C416">
-        <v>12.17656936704864</v>
+        <v>12.17657032494271</v>
       </c>
       <c r="D416">
-        <v>11.79213984839143</v>
+        <v>11.79214077604359</v>
       </c>
       <c r="E416">
-        <v>12.12292861938477</v>
+        <v>12.12292957305908</v>
       </c>
       <c r="F416">
         <v>3327572</v>
@@ -11846,16 +11846,16 @@
         <v>44838</v>
       </c>
       <c r="B419">
-        <v>13.15105400135538</v>
+        <v>13.15105306611884</v>
       </c>
       <c r="C419">
-        <v>13.50866276274797</v>
+        <v>13.5086618020801</v>
       </c>
       <c r="D419">
-        <v>13.10635322897096</v>
+        <v>13.10635229691331</v>
       </c>
       <c r="E419">
-        <v>13.41032123565674</v>
+        <v>13.41032028198242</v>
       </c>
       <c r="F419">
         <v>4425287</v>
@@ -11872,16 +11872,16 @@
         <v>44839</v>
       </c>
       <c r="B420">
-        <v>13.41032123565674</v>
+        <v>13.41032028198242</v>
       </c>
       <c r="C420">
-        <v>13.7142883815701</v>
+        <v>13.71428740627917</v>
       </c>
       <c r="D420">
-        <v>13.11529407206578</v>
+        <v>13.1152931393723</v>
       </c>
       <c r="E420">
-        <v>13.41032123565674</v>
+        <v>13.41032028198242</v>
       </c>
       <c r="F420">
         <v>2792192</v>
@@ -11898,16 +11898,16 @@
         <v>44840</v>
       </c>
       <c r="B421">
-        <v>13.55336460321359</v>
+        <v>13.55336365267428</v>
       </c>
       <c r="C421">
-        <v>13.84839177131721</v>
+        <v>13.84839080008673</v>
       </c>
       <c r="D421">
-        <v>13.49078300445472</v>
+        <v>13.49078205830445</v>
       </c>
       <c r="E421">
-        <v>13.59806537628174</v>
+        <v>13.59806442260742</v>
       </c>
       <c r="F421">
         <v>6127236</v>
@@ -11950,16 +11950,16 @@
         <v>44844</v>
       </c>
       <c r="B423">
-        <v>13.22257484006911</v>
+        <v>13.2225738934354</v>
       </c>
       <c r="C423">
-        <v>13.41032048371924</v>
+        <v>13.41031952364441</v>
       </c>
       <c r="D423">
-        <v>13.04377089978483</v>
+        <v>13.0437699659521</v>
       </c>
       <c r="E423">
-        <v>13.32091808319092</v>
+        <v>13.3209171295166</v>
       </c>
       <c r="F423">
         <v>2045508</v>
@@ -11976,16 +11976,16 @@
         <v>44845</v>
       </c>
       <c r="B424">
-        <v>13.28515657994496</v>
+        <v>13.2851556281921</v>
       </c>
       <c r="C424">
-        <v>13.3656189995339</v>
+        <v>13.36561804201668</v>
       </c>
       <c r="D424">
-        <v>13.08847267386312</v>
+        <v>13.08847173620075</v>
       </c>
       <c r="E424">
-        <v>13.31197738647461</v>
+        <v>13.31197643280029</v>
       </c>
       <c r="F424">
         <v>1848640</v>
@@ -12080,16 +12080,16 @@
         <v>44852</v>
       </c>
       <c r="B428">
-        <v>13.3656196024999</v>
+        <v>13.36561865200454</v>
       </c>
       <c r="C428">
-        <v>13.7411083285373</v>
+        <v>13.74110735133907</v>
       </c>
       <c r="D428">
-        <v>13.21363559915702</v>
+        <v>13.21363465946999</v>
       </c>
       <c r="E428">
-        <v>13.41032123565674</v>
+        <v>13.41032028198242</v>
       </c>
       <c r="F428">
         <v>2211886</v>
@@ -12106,16 +12106,16 @@
         <v>44853</v>
       </c>
       <c r="B429">
-        <v>13.36561953944059</v>
+        <v>13.36561859711198</v>
       </c>
       <c r="C429">
-        <v>13.59806510413323</v>
+        <v>13.5980641454163</v>
       </c>
       <c r="D429">
-        <v>13.27621713432114</v>
+        <v>13.27621619829575</v>
       </c>
       <c r="E429">
-        <v>13.52654266357422</v>
+        <v>13.5265417098999</v>
       </c>
       <c r="F429">
         <v>1282165</v>
@@ -12210,16 +12210,16 @@
         <v>44859</v>
       </c>
       <c r="B433">
-        <v>13.43713951902563</v>
+        <v>13.43714048425965</v>
       </c>
       <c r="C433">
-        <v>13.65170509360565</v>
+        <v>13.65170607425262</v>
       </c>
       <c r="D433">
-        <v>13.24939560963696</v>
+        <v>13.24939656138471</v>
       </c>
       <c r="E433">
-        <v>13.27621555328369</v>
+        <v>13.27621650695801</v>
       </c>
       <c r="F433">
         <v>1601293</v>
@@ -12288,16 +12288,16 @@
         <v>44862</v>
       </c>
       <c r="B436">
-        <v>13.73216840476276</v>
+        <v>13.73216744483892</v>
       </c>
       <c r="C436">
-        <v>14.071897202959</v>
+        <v>14.071896219287</v>
       </c>
       <c r="D436">
-        <v>12.99907091420717</v>
+        <v>12.99907000552926</v>
       </c>
       <c r="E436">
-        <v>13.64276599884033</v>
+        <v>13.64276504516602</v>
       </c>
       <c r="F436">
         <v>6048388</v>
@@ -12392,16 +12392,16 @@
         <v>44869</v>
       </c>
       <c r="B440">
-        <v>14.76029240441219</v>
+        <v>14.76029144199392</v>
       </c>
       <c r="C440">
-        <v>14.9212172443866</v>
+        <v>14.92121627147552</v>
       </c>
       <c r="D440">
-        <v>14.41162363934572</v>
+        <v>14.41162269966177</v>
       </c>
       <c r="E440">
-        <v>14.62618923187256</v>
+        <v>14.62618827819824</v>
       </c>
       <c r="F440">
         <v>3663661</v>
@@ -12418,16 +12418,16 @@
         <v>44872</v>
       </c>
       <c r="B441">
-        <v>14.54572652171227</v>
+        <v>14.54572751316801</v>
       </c>
       <c r="C441">
-        <v>14.65300801832835</v>
+        <v>14.65300901709654</v>
       </c>
       <c r="D441">
-        <v>13.94673228366163</v>
+        <v>13.94673323428914</v>
       </c>
       <c r="E441">
-        <v>13.99143218994141</v>
+        <v>13.99143314361572</v>
       </c>
       <c r="F441">
         <v>2151917</v>
@@ -12496,16 +12496,16 @@
         <v>44875</v>
       </c>
       <c r="B444">
-        <v>13.40138010503005</v>
+        <v>13.40137910533932</v>
       </c>
       <c r="C444">
-        <v>13.40138010503005</v>
+        <v>13.40137910533932</v>
       </c>
       <c r="D444">
-        <v>12.18551154746355</v>
+        <v>12.18551063847188</v>
       </c>
       <c r="E444">
-        <v>12.78450584411621</v>
+        <v>12.78450489044189</v>
       </c>
       <c r="F444">
         <v>10581398</v>
@@ -12522,16 +12522,16 @@
         <v>44876</v>
       </c>
       <c r="B445">
-        <v>12.31961383415164</v>
+        <v>12.31961285707861</v>
       </c>
       <c r="C445">
-        <v>12.79344579759777</v>
+        <v>12.79344478294496</v>
       </c>
       <c r="D445">
-        <v>11.84578273147789</v>
+        <v>11.84578179198458</v>
       </c>
       <c r="E445">
-        <v>12.02458667755127</v>
+        <v>12.02458572387695</v>
       </c>
       <c r="F445">
         <v>9635321</v>
@@ -12652,16 +12652,16 @@
         <v>44886</v>
       </c>
       <c r="B450">
-        <v>11.47029400671218</v>
+        <v>11.47029307553701</v>
       </c>
       <c r="C450">
-        <v>11.82790275939359</v>
+        <v>11.82790179918722</v>
       </c>
       <c r="D450">
-        <v>11.28255007865305</v>
+        <v>11.2825491627192</v>
       </c>
       <c r="E450">
-        <v>11.74744033813477</v>
+        <v>11.74743938446045</v>
       </c>
       <c r="F450">
         <v>4991964</v>
@@ -12704,16 +12704,16 @@
         <v>44888</v>
       </c>
       <c r="B452">
-        <v>11.47029346769882</v>
+        <v>11.47029441619815</v>
       </c>
       <c r="C452">
-        <v>11.57757669100246</v>
+        <v>11.57757764837323</v>
       </c>
       <c r="D452">
-        <v>11.25572788186391</v>
+        <v>11.25572881262042</v>
       </c>
       <c r="E452">
-        <v>11.53287506103516</v>
+        <v>11.53287601470947</v>
       </c>
       <c r="F452">
         <v>2848931</v>
@@ -12756,16 +12756,16 @@
         <v>44890</v>
       </c>
       <c r="B454">
-        <v>12.01564658413641</v>
+        <v>12.01564558199549</v>
       </c>
       <c r="C454">
-        <v>12.05140823379221</v>
+        <v>12.05140722866866</v>
       </c>
       <c r="D454">
-        <v>11.37195152346259</v>
+        <v>11.37195057500777</v>
       </c>
       <c r="E454">
-        <v>11.43453311920166</v>
+        <v>11.43453216552734</v>
       </c>
       <c r="F454">
         <v>2880833</v>
@@ -12834,16 +12834,16 @@
         <v>44895</v>
       </c>
       <c r="B457">
-        <v>11.84578299437559</v>
+        <v>11.84578204142047</v>
       </c>
       <c r="C457">
-        <v>12.07822855981592</v>
+        <v>12.0782275881613</v>
       </c>
       <c r="D457">
-        <v>11.53287586660963</v>
+        <v>11.53287493882688</v>
       </c>
       <c r="E457">
-        <v>11.85472297668457</v>
+        <v>11.85472202301025</v>
       </c>
       <c r="F457">
         <v>6904107</v>
@@ -12886,16 +12886,16 @@
         <v>44897</v>
       </c>
       <c r="B459">
-        <v>11.68485901230703</v>
+        <v>11.6848580694536</v>
       </c>
       <c r="C459">
-        <v>11.97988617553976</v>
+        <v>11.97988520888052</v>
       </c>
       <c r="D459">
-        <v>11.55969581685574</v>
+        <v>11.55969488410175</v>
       </c>
       <c r="E459">
-        <v>11.81896305084229</v>
+        <v>11.81896209716797</v>
       </c>
       <c r="F459">
         <v>2110020</v>
@@ -12912,16 +12912,16 @@
         <v>44900</v>
       </c>
       <c r="B460">
-        <v>11.7563799650453</v>
+        <v>11.75638097314957</v>
       </c>
       <c r="C460">
-        <v>11.7563799650453</v>
+        <v>11.75638097314957</v>
       </c>
       <c r="D460">
-        <v>11.0322216917054</v>
+        <v>11.03222263771343</v>
       </c>
       <c r="E460">
-        <v>11.12162494659424</v>
+        <v>11.12162590026855</v>
       </c>
       <c r="F460">
         <v>2438739</v>
@@ -12938,16 +12938,16 @@
         <v>44901</v>
       </c>
       <c r="B461">
-        <v>11.09480437865182</v>
+        <v>11.09480342651201</v>
       </c>
       <c r="C461">
-        <v>11.36301158752386</v>
+        <v>11.3630106123669</v>
       </c>
       <c r="D461">
-        <v>10.9070604514455</v>
+        <v>10.9070595154176</v>
       </c>
       <c r="E461">
-        <v>11.11268520355225</v>
+        <v>11.11268424987793</v>
       </c>
       <c r="F461">
         <v>3634787</v>
@@ -13016,16 +13016,16 @@
         <v>44904</v>
       </c>
       <c r="B464">
-        <v>10.28124525326809</v>
+        <v>10.28124428442933</v>
       </c>
       <c r="C464">
-        <v>10.46899003943859</v>
+        <v>10.46898905290796</v>
       </c>
       <c r="D464">
-        <v>9.878935734993338</v>
+        <v>9.878934804065649</v>
       </c>
       <c r="E464">
-        <v>10.12032127380371</v>
+        <v>10.12032032012939</v>
       </c>
       <c r="F464">
         <v>4631040</v>
@@ -13042,16 +13042,16 @@
         <v>44907</v>
       </c>
       <c r="B465">
-        <v>9.995158967675676</v>
+        <v>9.995158007128046</v>
       </c>
       <c r="C465">
-        <v>10.46899006445056</v>
+        <v>10.46898905836715</v>
       </c>
       <c r="D465">
-        <v>9.834234987826829</v>
+        <v>9.834234042744198</v>
       </c>
       <c r="E465">
-        <v>9.923637390136719</v>
+        <v>9.923636436462402</v>
       </c>
       <c r="F465">
         <v>6343387</v>
@@ -13068,16 +13068,16 @@
         <v>44908</v>
       </c>
       <c r="B466">
-        <v>9.950456629864673</v>
+        <v>9.950457599215841</v>
       </c>
       <c r="C466">
-        <v>10.38852690677645</v>
+        <v>10.38852791880344</v>
       </c>
       <c r="D466">
-        <v>9.762712717343812</v>
+        <v>9.762713668405389</v>
       </c>
       <c r="E466">
-        <v>9.789532661437988</v>
+        <v>9.789533615112305</v>
       </c>
       <c r="F466">
         <v>6881089</v>
@@ -13146,16 +13146,16 @@
         <v>44911</v>
       </c>
       <c r="B469">
-        <v>10.22760367495683</v>
+        <v>10.22760462448124</v>
       </c>
       <c r="C469">
-        <v>10.67461392780653</v>
+        <v>10.67461491883109</v>
       </c>
       <c r="D469">
-        <v>10.18290204713124</v>
+        <v>10.18290299250557</v>
       </c>
       <c r="E469">
-        <v>10.27230358123779</v>
+        <v>10.27230453491211</v>
       </c>
       <c r="F469">
         <v>14258386</v>
@@ -13172,16 +13172,16 @@
         <v>44914</v>
       </c>
       <c r="B470">
-        <v>10.27230371556435</v>
+        <v>10.27230465856929</v>
       </c>
       <c r="C470">
-        <v>10.47792931255185</v>
+        <v>10.47793027443337</v>
       </c>
       <c r="D470">
-        <v>10.1113806077593</v>
+        <v>10.11138153599139</v>
       </c>
       <c r="E470">
-        <v>10.38852691650391</v>
+        <v>10.38852787017822</v>
       </c>
       <c r="F470">
         <v>3753211</v>
@@ -13224,16 +13224,16 @@
         <v>44916</v>
       </c>
       <c r="B472">
-        <v>10.81765780419239</v>
+        <v>10.81765875238138</v>
       </c>
       <c r="C472">
-        <v>11.05010333951831</v>
+        <v>11.05010430808161</v>
       </c>
       <c r="D472">
-        <v>10.53157066041729</v>
+        <v>10.53157158353018</v>
       </c>
       <c r="E472">
-        <v>10.88023853302002</v>
+        <v>10.88023948669434</v>
       </c>
       <c r="F472">
         <v>3195923</v>
@@ -13250,16 +13250,16 @@
         <v>44917</v>
       </c>
       <c r="B473">
-        <v>10.89812043722922</v>
+        <v>10.8981194920837</v>
       </c>
       <c r="C473">
-        <v>11.06798439980636</v>
+        <v>11.0679834399293</v>
       </c>
       <c r="D473">
-        <v>10.74613729949975</v>
+        <v>10.74613636753505</v>
       </c>
       <c r="E473">
-        <v>10.99646282196045</v>
+        <v>10.99646186828613</v>
       </c>
       <c r="F473">
         <v>2407341</v>
@@ -13302,16 +13302,16 @@
         <v>44921</v>
       </c>
       <c r="B475">
-        <v>11.30042863228279</v>
+        <v>11.30043056873954</v>
       </c>
       <c r="C475">
-        <v>11.35407023975951</v>
+        <v>11.35407218540836</v>
       </c>
       <c r="D475">
-        <v>11.04116143666017</v>
+        <v>11.04116332868854</v>
       </c>
       <c r="E475">
-        <v>11.13056468963623</v>
+        <v>11.13056659698486</v>
       </c>
       <c r="F475">
         <v>1667319</v>
@@ -13328,16 +13328,16 @@
         <v>44922</v>
       </c>
       <c r="B476">
-        <v>11.20493924889629</v>
+        <v>11.20493827619608</v>
       </c>
       <c r="C476">
-        <v>11.22320361484943</v>
+        <v>11.2232026405637</v>
       </c>
       <c r="D476">
-        <v>10.83052809959721</v>
+        <v>10.83052715939962</v>
       </c>
       <c r="E476">
-        <v>10.98577213287354</v>
+        <v>10.98577117919922</v>
       </c>
       <c r="F476">
         <v>2935250</v>
@@ -13380,16 +13380,16 @@
         <v>44924</v>
       </c>
       <c r="B478">
-        <v>11.48803061781845</v>
+        <v>11.4880296686711</v>
       </c>
       <c r="C478">
-        <v>11.78938606940799</v>
+        <v>11.78938509536248</v>
       </c>
       <c r="D478">
-        <v>11.22320389906025</v>
+        <v>11.22320297179302</v>
       </c>
       <c r="E478">
-        <v>11.54282283782959</v>
+        <v>11.54282188415527</v>
       </c>
       <c r="F478">
         <v>3691424</v>
@@ -13406,16 +13406,16 @@
         <v>44928</v>
       </c>
       <c r="B479">
-        <v>11.39671004458977</v>
+        <v>11.39671106972802</v>
       </c>
       <c r="C479">
-        <v>11.39671004458977</v>
+        <v>11.39671106972802</v>
       </c>
       <c r="D479">
-        <v>10.40132453908727</v>
+        <v>10.40132547469024</v>
       </c>
       <c r="E479">
-        <v>10.60222816467285</v>
+        <v>10.60222911834717</v>
       </c>
       <c r="F479">
         <v>2948980</v>
@@ -13484,16 +13484,16 @@
         <v>44931</v>
       </c>
       <c r="B482">
-        <v>10.22781642792427</v>
+        <v>10.22781735672013</v>
       </c>
       <c r="C482">
-        <v>10.79399854054781</v>
+        <v>10.7939995207591</v>
       </c>
       <c r="D482">
-        <v>10.20955294260649</v>
+        <v>10.20955386974383</v>
       </c>
       <c r="E482">
-        <v>10.50177574157715</v>
+        <v>10.50177669525146</v>
       </c>
       <c r="F482">
         <v>3524036</v>
@@ -13588,16 +13588,16 @@
         <v>44937</v>
       </c>
       <c r="B486">
-        <v>11.59761370302471</v>
+        <v>11.59761461988046</v>
       </c>
       <c r="C486">
-        <v>12.1455323221856</v>
+        <v>12.14553328235736</v>
       </c>
       <c r="D486">
-        <v>11.57934845950691</v>
+        <v>11.57934937491869</v>
       </c>
       <c r="E486">
-        <v>12.06334400177002</v>
+        <v>12.06334495544434</v>
       </c>
       <c r="F486">
         <v>4034277</v>
@@ -13692,16 +13692,16 @@
         <v>44943</v>
       </c>
       <c r="B490">
-        <v>11.3236537154636</v>
+        <v>11.32365465549233</v>
       </c>
       <c r="C490">
-        <v>11.59761390914889</v>
+        <v>11.59761487192032</v>
       </c>
       <c r="D490">
-        <v>11.22320278745216</v>
+        <v>11.22320371914199</v>
       </c>
       <c r="E490">
-        <v>11.48802947998047</v>
+        <v>11.48803043365479</v>
       </c>
       <c r="F490">
         <v>2581089</v>
@@ -13744,16 +13744,16 @@
         <v>44945</v>
       </c>
       <c r="B492">
-        <v>11.99942088772377</v>
+        <v>11.99942180643931</v>
       </c>
       <c r="C492">
-        <v>12.84869498287009</v>
+        <v>12.84869596660888</v>
       </c>
       <c r="D492">
-        <v>11.83504599382871</v>
+        <v>11.83504689995917</v>
       </c>
       <c r="E492">
-        <v>12.45602035522461</v>
+        <v>12.45602130889893</v>
       </c>
       <c r="F492">
         <v>5394988</v>
@@ -13770,16 +13770,16 @@
         <v>44946</v>
       </c>
       <c r="B493">
-        <v>12.44688809216581</v>
+        <v>12.44688905076324</v>
       </c>
       <c r="C493">
-        <v>12.54733902124558</v>
+        <v>12.54733998757923</v>
       </c>
       <c r="D493">
-        <v>12.01768475132017</v>
+        <v>12.01768567686249</v>
       </c>
       <c r="E493">
-        <v>12.38296413421631</v>
+        <v>12.38296508789062</v>
       </c>
       <c r="F493">
         <v>2495174</v>
@@ -13822,16 +13822,16 @@
         <v>44950</v>
       </c>
       <c r="B495">
-        <v>12.19119295553459</v>
+        <v>12.19119203695213</v>
       </c>
       <c r="C495">
-        <v>12.79390383979565</v>
+        <v>12.79390287580012</v>
       </c>
       <c r="D495">
-        <v>12.06334503234542</v>
+        <v>12.06334412339606</v>
       </c>
       <c r="E495">
-        <v>12.65692329406738</v>
+        <v>12.65692234039307</v>
       </c>
       <c r="F495">
         <v>5075153</v>
@@ -13848,16 +13848,16 @@
         <v>44951</v>
       </c>
       <c r="B496">
-        <v>12.6386595586568</v>
+        <v>12.638660501432</v>
       </c>
       <c r="C496">
-        <v>12.99480721206753</v>
+        <v>12.99480818140941</v>
       </c>
       <c r="D496">
-        <v>12.49254815173743</v>
+        <v>12.49254908361351</v>
       </c>
       <c r="E496">
-        <v>12.78477096557617</v>
+        <v>12.78477191925049</v>
       </c>
       <c r="F496">
         <v>2519909</v>
@@ -13874,16 +13874,16 @@
         <v>44952</v>
       </c>
       <c r="B497">
-        <v>12.81216764676543</v>
+        <v>12.81216670517144</v>
       </c>
       <c r="C497">
-        <v>13.12265483996284</v>
+        <v>13.12265387555048</v>
       </c>
       <c r="D497">
-        <v>12.72084757374177</v>
+        <v>12.7208466388591</v>
       </c>
       <c r="E497">
-        <v>12.97654342651367</v>
+        <v>12.97654247283936</v>
       </c>
       <c r="F497">
         <v>2815211</v>
@@ -13926,16 +13926,16 @@
         <v>44956</v>
       </c>
       <c r="B499">
-        <v>13.01307138979667</v>
+        <v>13.01307043745893</v>
       </c>
       <c r="C499">
-        <v>13.37835080574095</v>
+        <v>13.3783498266709</v>
       </c>
       <c r="D499">
-        <v>12.94001568245498</v>
+        <v>12.94001473546369</v>
       </c>
       <c r="E499">
-        <v>13.03133487701416</v>
+        <v>13.03133392333984</v>
       </c>
       <c r="F499">
         <v>2566955</v>
@@ -13952,16 +13952,16 @@
         <v>44957</v>
       </c>
       <c r="B500">
-        <v>13.04046687484727</v>
+        <v>13.04046780634312</v>
       </c>
       <c r="C500">
-        <v>13.60664989846274</v>
+        <v>13.60665087040171</v>
       </c>
       <c r="D500">
-        <v>13.03133425244038</v>
+        <v>13.03133518328388</v>
       </c>
       <c r="E500">
-        <v>13.35095405578613</v>
+        <v>13.35095500946045</v>
       </c>
       <c r="F500">
         <v>4284855</v>
@@ -14004,16 +14004,16 @@
         <v>44959</v>
       </c>
       <c r="B502">
-        <v>13.33269038642319</v>
+        <v>13.33268944308685</v>
       </c>
       <c r="C502">
-        <v>13.95366565996322</v>
+        <v>13.95366467269062</v>
       </c>
       <c r="D502">
-        <v>13.33269038642319</v>
+        <v>13.33268944308685</v>
       </c>
       <c r="E502">
-        <v>13.47880268096924</v>
+        <v>13.47880172729492</v>
       </c>
       <c r="F502">
         <v>4085160</v>
@@ -14134,16 +14134,16 @@
         <v>44966</v>
       </c>
       <c r="B507">
-        <v>13.32355781201757</v>
+        <v>13.32355881519773</v>
       </c>
       <c r="C507">
-        <v>13.34182217741044</v>
+        <v>13.3418231819658</v>
       </c>
       <c r="D507">
-        <v>12.59299902254708</v>
+        <v>12.59299997072077</v>
       </c>
       <c r="E507">
-        <v>12.66605472564697</v>
+        <v>12.66605567932129</v>
       </c>
       <c r="F507">
         <v>2590377</v>
@@ -14212,16 +14212,16 @@
         <v>44971</v>
       </c>
       <c r="B510">
-        <v>13.51532885923491</v>
+        <v>13.5153278489</v>
       </c>
       <c r="C510">
-        <v>13.68883725373744</v>
+        <v>13.68883623043195</v>
       </c>
       <c r="D510">
-        <v>12.7025835000322</v>
+        <v>12.70258255045387</v>
       </c>
       <c r="E510">
-        <v>12.75737571716309</v>
+        <v>12.75737476348877</v>
       </c>
       <c r="F510">
         <v>6896737</v>
@@ -14264,16 +14264,16 @@
         <v>44973</v>
       </c>
       <c r="B512">
-        <v>13.20484197095263</v>
+        <v>13.204842908419</v>
       </c>
       <c r="C512">
-        <v>13.56098963166887</v>
+        <v>13.56099059441964</v>
       </c>
       <c r="D512">
-        <v>13.16831499770933</v>
+        <v>13.16831593258251</v>
       </c>
       <c r="E512">
-        <v>13.43314170837402</v>
+        <v>13.43314266204834</v>
       </c>
       <c r="F512">
         <v>1907195</v>
@@ -14290,16 +14290,16 @@
         <v>44974</v>
       </c>
       <c r="B513">
-        <v>13.40574627328421</v>
+        <v>13.4057472308724</v>
       </c>
       <c r="C513">
-        <v>13.42400975962636</v>
+        <v>13.42401071851913</v>
       </c>
       <c r="D513">
-        <v>13.18657828252772</v>
+        <v>13.18657922446048</v>
       </c>
       <c r="E513">
-        <v>13.35095405578613</v>
+        <v>13.35095500946045</v>
       </c>
       <c r="F513">
         <v>1180399</v>
@@ -14524,16 +14524,16 @@
         <v>44991</v>
       </c>
       <c r="B522">
-        <v>12.20032439857624</v>
+        <v>12.20032531718399</v>
       </c>
       <c r="C522">
-        <v>12.77563915953261</v>
+        <v>12.77564012145795</v>
       </c>
       <c r="D522">
-        <v>12.20032439857624</v>
+        <v>12.20032531718399</v>
       </c>
       <c r="E522">
-        <v>12.66605472564697</v>
+        <v>12.66605567932129</v>
       </c>
       <c r="F522">
         <v>3047313</v>
@@ -14628,16 +14628,16 @@
         <v>44995</v>
       </c>
       <c r="B526">
-        <v>13.20484150041741</v>
+        <v>13.20484245806533</v>
       </c>
       <c r="C526">
-        <v>13.35095378436323</v>
+        <v>13.35095475260758</v>
       </c>
       <c r="D526">
-        <v>12.85782735384899</v>
+        <v>12.85782828633058</v>
       </c>
       <c r="E526">
-        <v>13.15005016326904</v>
+        <v>13.15005111694336</v>
       </c>
       <c r="F526">
         <v>1798565</v>
@@ -14680,16 +14680,16 @@
         <v>44999</v>
       </c>
       <c r="B528">
-        <v>13.14091906983813</v>
+        <v>13.14091808396358</v>
       </c>
       <c r="C528">
-        <v>13.36921881040923</v>
+        <v>13.36921780740689</v>
       </c>
       <c r="D528">
-        <v>12.63865999227604</v>
+        <v>12.6386590440826</v>
       </c>
       <c r="E528">
-        <v>12.71171569824219</v>
+        <v>12.71171474456787</v>
       </c>
       <c r="F528">
         <v>1444505</v>
@@ -14784,16 +14784,16 @@
         <v>45005</v>
       </c>
       <c r="B532">
-        <v>12.24598394222281</v>
+        <v>12.24598295771377</v>
       </c>
       <c r="C532">
-        <v>12.42862319921217</v>
+        <v>12.42862220001996</v>
       </c>
       <c r="D532">
-        <v>11.66153744062105</v>
+        <v>11.66153650309827</v>
       </c>
       <c r="E532">
-        <v>11.86244106292725</v>
+        <v>11.86244010925293</v>
       </c>
       <c r="F532">
         <v>5506849</v>
@@ -14810,16 +14810,16 @@
         <v>45006</v>
       </c>
       <c r="B533">
-        <v>11.83504486083984</v>
+        <v>11.83504581451416</v>
       </c>
       <c r="C533">
-        <v>12.1181350264735</v>
+        <v>12.11813600295937</v>
       </c>
       <c r="D533">
-        <v>11.73459217870922</v>
+        <v>11.734593124289</v>
       </c>
       <c r="E533">
-        <v>11.83504486083984</v>
+        <v>11.83504581451416</v>
       </c>
       <c r="F533">
         <v>1775142</v>
@@ -14836,16 +14836,16 @@
         <v>45007</v>
       </c>
       <c r="B534">
-        <v>11.76199051742147</v>
+        <v>11.76198958261735</v>
       </c>
       <c r="C534">
-        <v>12.36470052490483</v>
+        <v>12.36469954219931</v>
       </c>
       <c r="D534">
-        <v>11.76199051742147</v>
+        <v>11.76198958261735</v>
       </c>
       <c r="E534">
-        <v>11.99942111968994</v>
+        <v>11.99942016601562</v>
       </c>
       <c r="F534">
         <v>2476497</v>
@@ -14862,16 +14862,16 @@
         <v>45008</v>
       </c>
       <c r="B535">
-        <v>11.99942042432733</v>
+        <v>11.9994214447899</v>
       </c>
       <c r="C535">
-        <v>12.09074049014804</v>
+        <v>12.09074151837671</v>
       </c>
       <c r="D535">
-        <v>10.96750623033705</v>
+        <v>10.9675071630429</v>
       </c>
       <c r="E535">
-        <v>11.21407032012939</v>
+        <v>11.21407127380371</v>
       </c>
       <c r="F535">
         <v>4691110</v>
@@ -14914,16 +14914,16 @@
         <v>45012</v>
       </c>
       <c r="B537">
-        <v>11.67980180593788</v>
+        <v>11.67980086694675</v>
       </c>
       <c r="C537">
-        <v>12.03594857687609</v>
+        <v>12.03594760925273</v>
       </c>
       <c r="D537">
-        <v>11.61587784618266</v>
+        <v>11.61587691233065</v>
       </c>
       <c r="E537">
-        <v>11.86244106292725</v>
+        <v>11.86244010925293</v>
       </c>
       <c r="F537">
         <v>2536971</v>
@@ -14940,16 +14940,16 @@
         <v>45013</v>
       </c>
       <c r="B538">
-        <v>11.80764981142697</v>
+        <v>11.80764887867297</v>
       </c>
       <c r="C538">
-        <v>12.29164542067557</v>
+        <v>12.29164444968799</v>
       </c>
       <c r="D538">
-        <v>11.80764981142697</v>
+        <v>11.80764887867297</v>
       </c>
       <c r="E538">
-        <v>12.07247829437256</v>
+        <v>12.07247734069824</v>
       </c>
       <c r="F538">
         <v>2291643</v>
@@ -15096,16 +15096,16 @@
         <v>45021</v>
       </c>
       <c r="B544">
-        <v>11.67066922522761</v>
+        <v>11.67067022424057</v>
       </c>
       <c r="C544">
-        <v>11.85330846910792</v>
+        <v>11.85330948375486</v>
       </c>
       <c r="D544">
-        <v>11.04969491679881</v>
+        <v>11.04969586265617</v>
       </c>
       <c r="E544">
-        <v>11.14101409912109</v>
+        <v>11.14101505279541</v>
       </c>
       <c r="F544">
         <v>4730079</v>
@@ -15148,16 +15148,16 @@
         <v>45026</v>
       </c>
       <c r="B546">
-        <v>11.18667469623345</v>
+        <v>11.18667563383458</v>
       </c>
       <c r="C546">
-        <v>11.63414154340506</v>
+        <v>11.63414251851022</v>
       </c>
       <c r="D546">
-        <v>11.11361899211186</v>
+        <v>11.11361992358989</v>
       </c>
       <c r="E546">
-        <v>11.37844657897949</v>
+        <v>11.37844753265381</v>
       </c>
       <c r="F546">
         <v>4871319</v>
@@ -15304,16 +15304,16 @@
         <v>45034</v>
       </c>
       <c r="B552">
-        <v>12.87609082115157</v>
+        <v>12.87609183295045</v>
       </c>
       <c r="C552">
-        <v>12.96741000934504</v>
+        <v>12.96741102831975</v>
       </c>
       <c r="D552">
-        <v>12.06334459496775</v>
+        <v>12.0633455429013</v>
       </c>
       <c r="E552">
-        <v>12.13640117645264</v>
+        <v>12.13640213012695</v>
       </c>
       <c r="F552">
         <v>3919084</v>
@@ -15512,16 +15512,16 @@
         <v>45048</v>
       </c>
       <c r="B560">
-        <v>11.0588276334531</v>
+        <v>11.05882862819871</v>
       </c>
       <c r="C560">
-        <v>11.12275071501595</v>
+        <v>11.12275171551146</v>
       </c>
       <c r="D560">
-        <v>10.46524849988594</v>
+        <v>10.46524944123889</v>
       </c>
       <c r="E560">
-        <v>10.60222816467285</v>
+        <v>10.60222911834717</v>
       </c>
       <c r="F560">
         <v>7078259</v>
@@ -15564,16 +15564,16 @@
         <v>45050</v>
       </c>
       <c r="B562">
-        <v>10.59309580860906</v>
+        <v>10.59309683482632</v>
       </c>
       <c r="C562">
-        <v>10.63875540115108</v>
+        <v>10.63875643179166</v>
       </c>
       <c r="D562">
-        <v>9.734689138321643</v>
+        <v>9.734690081379853</v>
       </c>
       <c r="E562">
-        <v>9.844273567199707</v>
+        <v>9.844274520874023</v>
       </c>
       <c r="F562">
         <v>16781627</v>
@@ -15590,16 +15590,16 @@
         <v>45051</v>
       </c>
       <c r="B563">
-        <v>9.908197546919276</v>
+        <v>9.908198454583051</v>
       </c>
       <c r="C563">
-        <v>10.47437966098157</v>
+        <v>10.47438062051179</v>
       </c>
       <c r="D563">
-        <v>9.908197546919276</v>
+        <v>9.908198454583051</v>
       </c>
       <c r="E563">
-        <v>10.41045570373535</v>
+        <v>10.41045665740967</v>
       </c>
       <c r="F563">
         <v>9369095</v>
@@ -15616,16 +15616,16 @@
         <v>45054</v>
       </c>
       <c r="B564">
-        <v>10.55431805322236</v>
+        <v>10.55431902115561</v>
       </c>
       <c r="C564">
-        <v>10.58175579274382</v>
+        <v>10.58175676319338</v>
       </c>
       <c r="D564">
-        <v>10.18848358093724</v>
+        <v>10.18848451531992</v>
       </c>
       <c r="E564">
-        <v>10.39883899688721</v>
+        <v>10.39883995056152</v>
       </c>
       <c r="F564">
         <v>5548545</v>
@@ -15694,16 +15694,16 @@
         <v>45057</v>
       </c>
       <c r="B567">
-        <v>10.37140250721862</v>
+        <v>10.37140159227212</v>
       </c>
       <c r="C567">
-        <v>11.00246706997404</v>
+        <v>11.00246609935617</v>
       </c>
       <c r="D567">
-        <v>10.23421467365074</v>
+        <v>10.23421377080671</v>
       </c>
       <c r="E567">
-        <v>10.81040287017822</v>
+        <v>10.81040191650391</v>
       </c>
       <c r="F567">
         <v>12480315</v>
@@ -15746,16 +15746,16 @@
         <v>45061</v>
       </c>
       <c r="B569">
-        <v>10.60919456629877</v>
+        <v>10.60919361180155</v>
       </c>
       <c r="C569">
-        <v>10.6640691701182</v>
+        <v>10.66406821068398</v>
       </c>
       <c r="D569">
-        <v>10.42627687204204</v>
+        <v>10.42627593400172</v>
       </c>
       <c r="E569">
-        <v>10.60004806518555</v>
+        <v>10.60004711151123</v>
       </c>
       <c r="F569">
         <v>4041445</v>
@@ -15772,16 +15772,16 @@
         <v>45062</v>
       </c>
       <c r="B570">
-        <v>10.62748562734299</v>
+        <v>10.6274846518417</v>
       </c>
       <c r="C570">
-        <v>10.81040243792898</v>
+        <v>10.81040144563768</v>
       </c>
       <c r="D570">
-        <v>10.29823536828821</v>
+        <v>10.29823442300894</v>
       </c>
       <c r="E570">
-        <v>10.38969421386719</v>
+        <v>10.38969326019287</v>
       </c>
       <c r="F570">
         <v>2372207</v>
@@ -16006,16 +16006,16 @@
         <v>45075</v>
       </c>
       <c r="B579">
-        <v>12.24630186271167</v>
+        <v>12.24630282501007</v>
       </c>
       <c r="C579">
-        <v>12.28288522231816</v>
+        <v>12.28288618749123</v>
       </c>
       <c r="D579">
-        <v>11.96278060561843</v>
+        <v>11.9627815456381</v>
       </c>
       <c r="E579">
-        <v>12.13655090332031</v>
+        <v>12.13655185699463</v>
       </c>
       <c r="F579">
         <v>1756970</v>
@@ -16110,16 +16110,16 @@
         <v>45079</v>
       </c>
       <c r="B583">
-        <v>12.42007404709797</v>
+        <v>12.42007309622446</v>
       </c>
       <c r="C583">
-        <v>12.92309638315035</v>
+        <v>12.92309539376574</v>
       </c>
       <c r="D583">
-        <v>12.34690732195799</v>
+        <v>12.34690637668607</v>
       </c>
       <c r="E583">
-        <v>12.45665740966797</v>
+        <v>12.45665645599365</v>
       </c>
       <c r="F583">
         <v>9117407</v>
@@ -16136,16 +16136,16 @@
         <v>45082</v>
       </c>
       <c r="B584">
-        <v>12.46580409009045</v>
+        <v>12.46580312651883</v>
       </c>
       <c r="C584">
-        <v>12.55726205754529</v>
+        <v>12.55726108690423</v>
       </c>
       <c r="D584">
-        <v>11.96278174680087</v>
+        <v>11.96278082211147</v>
       </c>
       <c r="E584">
-        <v>12.33776187896729</v>
+        <v>12.33776092529297</v>
       </c>
       <c r="F584">
         <v>3760883</v>
@@ -16188,16 +16188,16 @@
         <v>45084</v>
       </c>
       <c r="B586">
-        <v>13.096867978258</v>
+        <v>13.09686702191233</v>
       </c>
       <c r="C586">
-        <v>13.52672272181738</v>
+        <v>13.52672173408331</v>
       </c>
       <c r="D586">
-        <v>12.84993005317367</v>
+        <v>12.84992911485964</v>
       </c>
       <c r="E586">
-        <v>13.06028461456299</v>
+        <v>13.06028366088867</v>
       </c>
       <c r="F586">
         <v>4617107</v>
@@ -16240,16 +16240,16 @@
         <v>45089</v>
       </c>
       <c r="B588">
-        <v>13.36209690318076</v>
+        <v>13.36209785620278</v>
       </c>
       <c r="C588">
-        <v>13.54501458686438</v>
+        <v>13.54501555293261</v>
       </c>
       <c r="D588">
-        <v>13.27978368135155</v>
+        <v>13.27978462850276</v>
       </c>
       <c r="E588">
-        <v>13.37124252319336</v>
+        <v>13.37124347686768</v>
       </c>
       <c r="F588">
         <v>2677201</v>
@@ -16292,16 +16292,16 @@
         <v>45091</v>
       </c>
       <c r="B590">
-        <v>13.14259609593198</v>
+        <v>13.14259702756352</v>
       </c>
       <c r="C590">
-        <v>13.50843058932598</v>
+        <v>13.50843154689022</v>
       </c>
       <c r="D590">
-        <v>13.01455477173023</v>
+        <v>13.01455569428538</v>
       </c>
       <c r="E590">
-        <v>13.4535551071167</v>
+        <v>13.45355606079102</v>
       </c>
       <c r="F590">
         <v>4237809</v>
@@ -16344,16 +16344,16 @@
         <v>45093</v>
       </c>
       <c r="B592">
-        <v>13.32551404934272</v>
+        <v>13.32551302839959</v>
       </c>
       <c r="C592">
-        <v>13.32551404934272</v>
+        <v>13.32551302839959</v>
       </c>
       <c r="D592">
-        <v>12.17313594448294</v>
+        <v>12.17313501183003</v>
       </c>
       <c r="E592">
-        <v>12.44751071929932</v>
+        <v>12.447509765625</v>
       </c>
       <c r="F592">
         <v>19648730</v>
@@ -16708,16 +16708,16 @@
         <v>45113</v>
       </c>
       <c r="B606">
-        <v>10.97859129089405</v>
+        <v>10.97859226005543</v>
       </c>
       <c r="C606">
-        <v>11.03399159326858</v>
+        <v>11.03399256732055</v>
       </c>
       <c r="D606">
-        <v>10.64618595435915</v>
+        <v>10.64618689417666</v>
       </c>
       <c r="E606">
-        <v>10.80315494537354</v>
+        <v>10.80315589904785</v>
       </c>
       <c r="F606">
         <v>6243800</v>
@@ -16760,16 +16760,16 @@
         <v>45117</v>
       </c>
       <c r="B608">
-        <v>11.00629220789118</v>
+        <v>11.00629125820048</v>
       </c>
       <c r="C608">
-        <v>11.15402753193181</v>
+        <v>11.1540265694936</v>
       </c>
       <c r="D608">
-        <v>10.87702335906963</v>
+        <v>10.87702242053304</v>
       </c>
       <c r="E608">
-        <v>11.05245971679688</v>
+        <v>11.05245876312256</v>
       </c>
       <c r="F608">
         <v>4418500</v>
@@ -16786,16 +16786,16 @@
         <v>45118</v>
       </c>
       <c r="B609">
-        <v>11.03399173627387</v>
+        <v>11.03399270371089</v>
       </c>
       <c r="C609">
-        <v>11.08015924256561</v>
+        <v>11.0801602140505</v>
       </c>
       <c r="D609">
-        <v>10.54461828295403</v>
+        <v>10.54461920748382</v>
       </c>
       <c r="E609">
-        <v>10.8770227432251</v>
+        <v>10.87702369689941</v>
       </c>
       <c r="F609">
         <v>8212800</v>
@@ -16838,16 +16838,16 @@
         <v>45120</v>
       </c>
       <c r="B611">
-        <v>10.87702322242362</v>
+        <v>10.87702226712745</v>
       </c>
       <c r="C611">
-        <v>11.04322590016735</v>
+        <v>11.0432249302741</v>
       </c>
       <c r="D611">
-        <v>10.78468908634419</v>
+        <v>10.78468813915745</v>
       </c>
       <c r="E611">
-        <v>10.85855674743652</v>
+        <v>10.85855579376221</v>
       </c>
       <c r="F611">
         <v>4137100</v>
@@ -16942,16 +16942,16 @@
         <v>45126</v>
       </c>
       <c r="B615">
-        <v>10.69235300431525</v>
+        <v>10.69235399034638</v>
       </c>
       <c r="C615">
-        <v>10.69235300431525</v>
+        <v>10.69235399034638</v>
       </c>
       <c r="D615">
-        <v>10.14757839761123</v>
+        <v>10.14757933340414</v>
       </c>
       <c r="E615">
-        <v>10.34148120880127</v>
+        <v>10.34148216247559</v>
       </c>
       <c r="F615">
         <v>11108100</v>
@@ -17046,16 +17046,16 @@
         <v>45132</v>
       </c>
       <c r="B619">
-        <v>11.0801592500004</v>
+        <v>11.08016021088134</v>
       </c>
       <c r="C619">
-        <v>11.30176222366314</v>
+        <v>11.30176320376168</v>
       </c>
       <c r="D619">
-        <v>10.92319025684631</v>
+        <v>10.92319120411476</v>
       </c>
       <c r="E619">
-        <v>10.99705791473389</v>
+        <v>10.9970588684082</v>
       </c>
       <c r="F619">
         <v>5058400</v>
@@ -17072,16 +17072,16 @@
         <v>45133</v>
       </c>
       <c r="B620">
-        <v>10.99705839184165</v>
+        <v>10.99705742600315</v>
       </c>
       <c r="C620">
-        <v>11.01552574740072</v>
+        <v>11.01552477994029</v>
       </c>
       <c r="D620">
-        <v>10.71082142525186</v>
+        <v>10.71082048455269</v>
       </c>
       <c r="E620">
-        <v>10.85855674743652</v>
+        <v>10.85855579376221</v>
       </c>
       <c r="F620">
         <v>5111700</v>
@@ -17098,16 +17098,16 @@
         <v>45134</v>
       </c>
       <c r="B621">
-        <v>10.8954904398184</v>
+        <v>10.89548947634607</v>
       </c>
       <c r="C621">
-        <v>11.02475840480476</v>
+        <v>11.02475742990145</v>
       </c>
       <c r="D621">
-        <v>10.72928776418226</v>
+        <v>10.72928681540699</v>
       </c>
       <c r="E621">
-        <v>10.78468894958496</v>
+        <v>10.78468799591064</v>
       </c>
       <c r="F621">
         <v>6940700</v>
@@ -17150,16 +17150,16 @@
         <v>45138</v>
       </c>
       <c r="B623">
-        <v>10.88625669710701</v>
+        <v>10.8862557554135</v>
       </c>
       <c r="C623">
-        <v>11.08015952399989</v>
+        <v>11.0801585655332</v>
       </c>
       <c r="D623">
-        <v>10.88625669710701</v>
+        <v>10.8862557554135</v>
       </c>
       <c r="E623">
-        <v>11.02475833892822</v>
+        <v>11.02475738525391</v>
       </c>
       <c r="F623">
         <v>3399100</v>
@@ -17176,16 +17176,16 @@
         <v>45139</v>
       </c>
       <c r="B624">
-        <v>11.06169163057433</v>
+        <v>11.06169258186639</v>
       </c>
       <c r="C624">
-        <v>11.14479296385252</v>
+        <v>11.14479392229119</v>
       </c>
       <c r="D624">
-        <v>10.85855601652979</v>
+        <v>10.85855695035244</v>
       </c>
       <c r="E624">
-        <v>11.08939266204834</v>
+        <v>11.08939361572266</v>
       </c>
       <c r="F624">
         <v>5921600</v>
@@ -17306,16 +17306,16 @@
         <v>45146</v>
       </c>
       <c r="B629">
-        <v>10.69235360580463</v>
+        <v>10.69235453305473</v>
       </c>
       <c r="C629">
-        <v>11.06169189524253</v>
+        <v>11.06169285452197</v>
       </c>
       <c r="D629">
-        <v>10.44305048057703</v>
+        <v>10.44305138620735</v>
       </c>
       <c r="E629">
-        <v>10.99705791473389</v>
+        <v>10.9970588684082</v>
       </c>
       <c r="F629">
         <v>6465200</v>
@@ -17358,16 +17358,16 @@
         <v>45148</v>
       </c>
       <c r="B631">
-        <v>11.13556092101418</v>
+        <v>11.13555996416624</v>
       </c>
       <c r="C631">
-        <v>11.33869654880864</v>
+        <v>11.33869557450582</v>
       </c>
       <c r="D631">
-        <v>10.98782471820188</v>
+        <v>10.9878237740485</v>
       </c>
       <c r="E631">
-        <v>11.0986270904541</v>
+        <v>11.09862613677979</v>
       </c>
       <c r="F631">
         <v>4975000</v>
@@ -17384,16 +17384,16 @@
         <v>45149</v>
       </c>
       <c r="B632">
-        <v>11.03399208612294</v>
+        <v>11.03399112114347</v>
       </c>
       <c r="C632">
-        <v>11.25559506666324</v>
+        <v>11.25559408230345</v>
       </c>
       <c r="D632">
-        <v>10.84932293567269</v>
+        <v>10.84932198684349</v>
       </c>
       <c r="E632">
-        <v>10.90472412109375</v>
+        <v>10.90472316741943</v>
       </c>
       <c r="F632">
         <v>4348800</v>
@@ -17410,16 +17410,16 @@
         <v>45152</v>
       </c>
       <c r="B633">
-        <v>10.88625676576274</v>
+        <v>10.88625581370349</v>
       </c>
       <c r="C633">
-        <v>11.07092591621299</v>
+        <v>11.07092494800347</v>
       </c>
       <c r="D633">
-        <v>10.72928776773704</v>
+        <v>10.72928682940553</v>
       </c>
       <c r="E633">
-        <v>10.90472412109375</v>
+        <v>10.90472316741943</v>
       </c>
       <c r="F633">
         <v>3064200</v>
@@ -17436,16 +17436,16 @@
         <v>45153</v>
       </c>
       <c r="B634">
-        <v>10.93242440852885</v>
+        <v>10.93242344836696</v>
       </c>
       <c r="C634">
-        <v>11.07092605293398</v>
+        <v>11.07092508060791</v>
       </c>
       <c r="D634">
-        <v>10.73852157801849</v>
+        <v>10.7385206348865</v>
       </c>
       <c r="E634">
-        <v>10.85855674743652</v>
+        <v>10.85855579376221</v>
       </c>
       <c r="F634">
         <v>4548400</v>
@@ -17566,16 +17566,16 @@
         <v>45160</v>
       </c>
       <c r="B639">
-        <v>10.69235407372123</v>
+        <v>10.69235315495683</v>
       </c>
       <c r="C639">
-        <v>11.17249475157426</v>
+        <v>11.1724937915527</v>
       </c>
       <c r="D639">
-        <v>10.6369537681671</v>
+        <v>10.63695285416309</v>
       </c>
       <c r="E639">
-        <v>11.0986270904541</v>
+        <v>11.09862613677979</v>
       </c>
       <c r="F639">
         <v>5680500</v>
@@ -17722,16 +17722,16 @@
         <v>45168</v>
       </c>
       <c r="B645">
-        <v>10.98782423735495</v>
+        <v>10.98782519022852</v>
       </c>
       <c r="C645">
-        <v>11.06169189524253</v>
+        <v>11.06169285452197</v>
       </c>
       <c r="D645">
-        <v>10.85855627633766</v>
+        <v>10.85855721800099</v>
       </c>
       <c r="E645">
-        <v>10.99705791473389</v>
+        <v>10.9970588684082</v>
       </c>
       <c r="F645">
         <v>3749300</v>
@@ -17826,16 +17826,16 @@
         <v>45174</v>
       </c>
       <c r="B649">
-        <v>11.20942742957817</v>
+        <v>11.20942843196833</v>
       </c>
       <c r="C649">
-        <v>11.20942742957817</v>
+        <v>11.20942843196833</v>
       </c>
       <c r="D649">
-        <v>10.66465282440186</v>
+        <v>10.66465377807617</v>
       </c>
       <c r="E649">
-        <v>10.66465282440186</v>
+        <v>10.66465377807617</v>
       </c>
       <c r="F649">
         <v>8659200</v>
@@ -17904,16 +17904,16 @@
         <v>45180</v>
       </c>
       <c r="B652">
-        <v>9.925975799560547</v>
+        <v>9.925976753234863</v>
       </c>
       <c r="C652">
-        <v>10.03677728421259</v>
+        <v>10.03677824853257</v>
       </c>
       <c r="D652">
-        <v>9.741306658473805</v>
+        <v>9.74130759440536</v>
       </c>
       <c r="E652">
-        <v>9.925975799560547</v>
+        <v>9.925976753234863</v>
       </c>
       <c r="F652">
         <v>8744700</v>
@@ -17956,16 +17956,16 @@
         <v>45182</v>
       </c>
       <c r="B654">
-        <v>10.32301568461438</v>
+        <v>10.32301472146358</v>
       </c>
       <c r="C654">
-        <v>10.50768483592094</v>
+        <v>10.50768385554026</v>
       </c>
       <c r="D654">
-        <v>10.2214469909668</v>
+        <v>10.22144603729248</v>
       </c>
       <c r="E654">
-        <v>10.2214469909668</v>
+        <v>10.22144603729248</v>
       </c>
       <c r="F654">
         <v>8336300</v>
@@ -18242,16 +18242,16 @@
         <v>45197</v>
       </c>
       <c r="B665">
-        <v>8.744093077688087</v>
+        <v>8.744092144702988</v>
       </c>
       <c r="C665">
-        <v>9.058031081576807</v>
+        <v>9.058030115094869</v>
       </c>
       <c r="D665">
-        <v>8.697925568779983</v>
+        <v>8.697924640720906</v>
       </c>
       <c r="E665">
-        <v>8.937995910644531</v>
+        <v>8.937994956970215</v>
       </c>
       <c r="F665">
         <v>5776700</v>
@@ -18346,16 +18346,16 @@
         <v>45203</v>
       </c>
       <c r="B669">
-        <v>8.097751071173116</v>
+        <v>8.097750115318922</v>
       </c>
       <c r="C669">
-        <v>8.199318892289739</v>
+        <v>8.199317924446534</v>
       </c>
       <c r="D669">
-        <v>7.968482214738469</v>
+        <v>7.968481274143103</v>
       </c>
       <c r="E669">
-        <v>8.079283714294434</v>
+        <v>8.079282760620117</v>
       </c>
       <c r="F669">
         <v>14186500</v>
@@ -18502,16 +18502,16 @@
         <v>45212</v>
       </c>
       <c r="B675">
-        <v>8.245485562573181</v>
+        <v>8.245486060603108</v>
       </c>
       <c r="C675">
-        <v>8.282419391989901</v>
+        <v>8.282419892250642</v>
       </c>
       <c r="D675">
-        <v>7.829978880920146</v>
+        <v>7.829979353853338</v>
       </c>
       <c r="E675">
-        <v>7.894613742828369</v>
+        <v>7.894614219665527</v>
       </c>
       <c r="F675">
         <v>6681200</v>
@@ -18528,16 +18528,16 @@
         <v>45215</v>
       </c>
       <c r="B676">
-        <v>7.959247724164641</v>
+        <v>7.959248204905712</v>
       </c>
       <c r="C676">
-        <v>8.06081553491763</v>
+        <v>8.06081602179343</v>
       </c>
       <c r="D676">
-        <v>7.802278729000594</v>
+        <v>7.802279200260688</v>
       </c>
       <c r="E676">
-        <v>7.894613742828369</v>
+        <v>7.894614219665527</v>
       </c>
       <c r="F676">
         <v>6364500</v>
@@ -18554,16 +18554,16 @@
         <v>45216</v>
       </c>
       <c r="B677">
-        <v>7.876146795664321</v>
+        <v>7.87614632489804</v>
       </c>
       <c r="C677">
-        <v>8.005415645602412</v>
+        <v>8.005415167109584</v>
       </c>
       <c r="D677">
-        <v>7.774578979652105</v>
+        <v>7.774578514956649</v>
       </c>
       <c r="E677">
-        <v>7.977715492248535</v>
+        <v>7.977715015411377</v>
       </c>
       <c r="F677">
         <v>6592700</v>
@@ -18684,16 +18684,16 @@
         <v>45223</v>
       </c>
       <c r="B682">
-        <v>7.589909689124468</v>
+        <v>7.589909200396121</v>
       </c>
       <c r="C682">
-        <v>7.608376164177315</v>
+        <v>7.608375674259878</v>
       </c>
       <c r="D682">
-        <v>7.294438603417062</v>
+        <v>7.294438133714645</v>
       </c>
       <c r="E682">
-        <v>7.405240535736084</v>
+        <v>7.405240058898926</v>
       </c>
       <c r="F682">
         <v>8443800</v>
@@ -18814,16 +18814,16 @@
         <v>45230</v>
       </c>
       <c r="B687">
-        <v>7.03590121157119</v>
+        <v>7.03590074752277</v>
       </c>
       <c r="C687">
-        <v>7.294438461573551</v>
+        <v>7.29443798047347</v>
       </c>
       <c r="D687">
-        <v>6.943566636672483</v>
+        <v>6.943566178713931</v>
       </c>
       <c r="E687">
-        <v>7.229804039001465</v>
+        <v>7.229803562164307</v>
       </c>
       <c r="F687">
         <v>5082000</v>
@@ -18840,16 +18840,16 @@
         <v>45231</v>
       </c>
       <c r="B688">
-        <v>7.275971717922452</v>
+        <v>7.275971244091815</v>
       </c>
       <c r="C688">
-        <v>7.728411365722786</v>
+        <v>7.728410862428075</v>
       </c>
       <c r="D688">
-        <v>7.220570971678696</v>
+        <v>7.220570501455904</v>
       </c>
       <c r="E688">
-        <v>7.322138786315918</v>
+        <v>7.32213830947876</v>
       </c>
       <c r="F688">
         <v>11133300</v>
@@ -18866,16 +18866,16 @@
         <v>45233</v>
       </c>
       <c r="B689">
-        <v>7.626842595649098</v>
+        <v>7.626843463198672</v>
       </c>
       <c r="C689">
-        <v>8.383986473083496</v>
+        <v>8.383987426757812</v>
       </c>
       <c r="D689">
-        <v>7.55297494324437</v>
+        <v>7.552975802391535</v>
       </c>
       <c r="E689">
-        <v>8.383986473083496</v>
+        <v>8.383987426757812</v>
       </c>
       <c r="F689">
         <v>15995000</v>
@@ -19100,16 +19100,16 @@
         <v>45247</v>
       </c>
       <c r="B698">
-        <v>9.13189771004892</v>
+        <v>9.131898675436727</v>
       </c>
       <c r="C698">
-        <v>9.214998159991774</v>
+        <v>9.214999134164628</v>
       </c>
       <c r="D698">
-        <v>9.002628875851327</v>
+        <v>9.002629827573349</v>
       </c>
       <c r="E698">
-        <v>9.021096229553223</v>
+        <v>9.021097183227539</v>
       </c>
       <c r="F698">
         <v>7834100</v>
@@ -19178,16 +19178,16 @@
         <v>45252</v>
       </c>
       <c r="B701">
-        <v>9.030329156660519</v>
+        <v>9.030330116221661</v>
       </c>
       <c r="C701">
-        <v>9.427368461284518</v>
+        <v>9.427369463034985</v>
       </c>
       <c r="D701">
-        <v>8.965695178911274</v>
+        <v>8.965696131604421</v>
       </c>
       <c r="E701">
-        <v>8.974928855895996</v>
+        <v>8.974929809570312</v>
       </c>
       <c r="F701">
         <v>12126100</v>
@@ -19230,16 +19230,16 @@
         <v>45254</v>
       </c>
       <c r="B703">
-        <v>8.89182846969681</v>
+        <v>8.891827498884577</v>
       </c>
       <c r="C703">
-        <v>8.901062147663403</v>
+        <v>8.901061175843033</v>
       </c>
       <c r="D703">
-        <v>8.660991803963991</v>
+        <v>8.660990858354568</v>
       </c>
       <c r="E703">
-        <v>8.734859466552734</v>
+        <v>8.734858512878418</v>
       </c>
       <c r="F703">
         <v>8295700</v>
@@ -19256,16 +19256,16 @@
         <v>45257</v>
       </c>
       <c r="B704">
-        <v>8.781027117461331</v>
+        <v>8.781026126265338</v>
       </c>
       <c r="C704">
-        <v>8.817960949351486</v>
+        <v>8.817959953986428</v>
       </c>
       <c r="D704">
-        <v>8.430155274218858</v>
+        <v>8.430154322629024</v>
       </c>
       <c r="E704">
-        <v>8.44862174987793</v>
+        <v>8.448620796203613</v>
       </c>
       <c r="F704">
         <v>5901700</v>
@@ -19308,16 +19308,16 @@
         <v>45259</v>
       </c>
       <c r="B706">
-        <v>8.504022801156447</v>
+        <v>8.504021859748027</v>
       </c>
       <c r="C706">
-        <v>8.716392110964486</v>
+        <v>8.716391146046455</v>
       </c>
       <c r="D706">
-        <v>8.485555445222532</v>
+        <v>8.485554505858476</v>
       </c>
       <c r="E706">
-        <v>8.614824295043945</v>
+        <v>8.614823341369629</v>
       </c>
       <c r="F706">
         <v>4175000</v>
@@ -19386,16 +19386,16 @@
         <v>45264</v>
       </c>
       <c r="B709">
-        <v>8.660990495391845</v>
+        <v>8.66099146142478</v>
       </c>
       <c r="C709">
-        <v>8.670224171963339</v>
+        <v>8.670225139026185</v>
       </c>
       <c r="D709">
-        <v>8.494787839392412</v>
+        <v>8.494788786887369</v>
       </c>
       <c r="E709">
-        <v>8.550189018249512</v>
+        <v>8.550189971923828</v>
       </c>
       <c r="F709">
         <v>4159700</v>
@@ -19412,16 +19412,16 @@
         <v>45265</v>
       </c>
       <c r="B710">
-        <v>8.614823283155017</v>
+        <v>8.614824227717781</v>
       </c>
       <c r="C710">
-        <v>8.845659921783119</v>
+        <v>8.84566089165571</v>
       </c>
       <c r="D710">
-        <v>8.614823283155017</v>
+        <v>8.614824227717781</v>
       </c>
       <c r="E710">
-        <v>8.697924613952637</v>
+        <v>8.697925567626953</v>
       </c>
       <c r="F710">
         <v>4182300</v>
@@ -19438,16 +19438,16 @@
         <v>45266</v>
       </c>
       <c r="B711">
-        <v>8.734858146820068</v>
+        <v>8.734859121092082</v>
       </c>
       <c r="C711">
-        <v>8.836425947390909</v>
+        <v>8.836426932991632</v>
       </c>
       <c r="D711">
-        <v>8.540955341678018</v>
+        <v>8.540956294322424</v>
       </c>
       <c r="E711">
-        <v>8.550189018249512</v>
+        <v>8.550189971923828</v>
       </c>
       <c r="F711">
         <v>2840000</v>
@@ -19464,16 +19464,16 @@
         <v>45267</v>
       </c>
       <c r="B712">
-        <v>8.605589406479789</v>
+        <v>8.605590349029528</v>
       </c>
       <c r="C712">
-        <v>8.725624561448216</v>
+        <v>8.72562551714512</v>
       </c>
       <c r="D712">
-        <v>8.522488077611502</v>
+        <v>8.522489011059351</v>
       </c>
       <c r="E712">
-        <v>8.707158088684082</v>
+        <v>8.707159042358398</v>
       </c>
       <c r="F712">
         <v>3161600</v>
@@ -19490,16 +19490,16 @@
         <v>45268</v>
       </c>
       <c r="B713">
-        <v>8.707159451366998</v>
+        <v>8.707158482277627</v>
       </c>
       <c r="C713">
-        <v>8.725625927021161</v>
+        <v>8.72562495587651</v>
       </c>
       <c r="D713">
-        <v>8.402455118211199</v>
+        <v>8.402454183034811</v>
       </c>
       <c r="E713">
-        <v>8.568656921386719</v>
+        <v>8.568655967712402</v>
       </c>
       <c r="F713">
         <v>4500000</v>
@@ -19542,16 +19542,16 @@
         <v>45272</v>
       </c>
       <c r="B715">
-        <v>8.540956084551468</v>
+        <v>8.540957049703229</v>
       </c>
       <c r="C715">
-        <v>8.725625229184139</v>
+        <v>8.725626215204025</v>
       </c>
       <c r="D715">
-        <v>8.420920920397247</v>
+        <v>8.420921871984701</v>
       </c>
       <c r="E715">
-        <v>8.439388275146484</v>
+        <v>8.439389228820801</v>
       </c>
       <c r="F715">
         <v>4001400</v>
@@ -19646,16 +19646,16 @@
         <v>45278</v>
       </c>
       <c r="B719">
-        <v>9.19653252115117</v>
+        <v>9.196531570340715</v>
       </c>
       <c r="C719">
-        <v>9.371967994374842</v>
+        <v>9.371967025426477</v>
       </c>
       <c r="D719">
-        <v>9.187298843462564</v>
+        <v>9.187297893606759</v>
       </c>
       <c r="E719">
-        <v>9.22423267364502</v>
+        <v>9.224231719970703</v>
       </c>
       <c r="F719">
         <v>3928300</v>
@@ -19672,16 +19672,16 @@
         <v>45279</v>
       </c>
       <c r="B720">
-        <v>9.325801232059835</v>
+        <v>9.32580027268623</v>
       </c>
       <c r="C720">
-        <v>9.335034029042802</v>
+        <v>9.33503306871939</v>
       </c>
       <c r="D720">
-        <v>9.205766065561692</v>
+        <v>9.205765118536469</v>
       </c>
       <c r="E720">
-        <v>9.270400047302246</v>
+        <v>9.27039909362793</v>
       </c>
       <c r="F720">
         <v>3267000</v>
@@ -28764,6 +28764,58 @@
         <v>0</v>
       </c>
       <c r="H1069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8">
+      <c r="A1070" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B1070">
+        <v>4.510000228881836</v>
+      </c>
+      <c r="C1070">
+        <v>4.639999866485596</v>
+      </c>
+      <c r="D1070">
+        <v>4.480000019073486</v>
+      </c>
+      <c r="E1070">
+        <v>4.510000228881836</v>
+      </c>
+      <c r="F1070">
+        <v>13330800</v>
+      </c>
+      <c r="G1070">
+        <v>0</v>
+      </c>
+      <c r="H1070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8">
+      <c r="A1071" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B1071">
+        <v>4.539999961853027</v>
+      </c>
+      <c r="C1071">
+        <v>4.679999828338623</v>
+      </c>
+      <c r="D1071">
+        <v>4.349999904632568</v>
+      </c>
+      <c r="E1071">
+        <v>4.659999847412109</v>
+      </c>
+      <c r="F1071">
+        <v>16944000</v>
+      </c>
+      <c r="G1071">
+        <v>0</v>
+      </c>
+      <c r="H1071">
         <v>0</v>
       </c>
     </row>
@@ -28817,34 +28869,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C2">
-        <v>9.643474779603068</v>
+        <v>9.633907508300497</v>
       </c>
       <c r="D2">
-        <v>9.993069901907772</v>
+        <v>9.986528668123475</v>
       </c>
       <c r="E2">
         <v>4.659999847412109</v>
       </c>
       <c r="F2">
-        <v>2.818972762612263</v>
+        <v>2.825006921043275</v>
       </c>
       <c r="G2">
         <v>3.619999885559082</v>
       </c>
       <c r="H2">
-        <v>7.622699684067276</v>
+        <v>7.599456579650401</v>
       </c>
       <c r="I2">
-        <v>11.75778324995233</v>
+        <v>11.75638093672783</v>
       </c>
       <c r="J2">
-        <v>4.13508356588505</v>
+        <v>4.156924357077429</v>
       </c>
       <c r="K2">
-        <v>16.05579941604877</v>
+        <v>16.05579746817938</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -28852,31 +28904,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C3">
-        <v>9.866052244965523</v>
+        <v>9.856321276330142</v>
       </c>
       <c r="D3">
-        <v>10.31894017352377</v>
+        <v>10.31560560974134</v>
       </c>
       <c r="E3">
         <v>4.699999809265137</v>
       </c>
       <c r="F3">
-        <v>2.879820770979401</v>
+        <v>2.885907900242944</v>
       </c>
       <c r="G3">
         <v>3.720000028610229</v>
       </c>
       <c r="H3">
-        <v>7.789083769549671</v>
+        <v>7.781931313469475</v>
       </c>
       <c r="I3">
-        <v>12.08135654239895</v>
+        <v>12.07679021384824</v>
       </c>
       <c r="J3">
-        <v>4.292272772849283</v>
+        <v>4.29485890037877</v>
       </c>
       <c r="K3">
         <v>16.36178851017342</v>
@@ -28887,34 +28939,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C4">
-        <v>9.410923433894535</v>
+        <v>9.401585231161347</v>
       </c>
       <c r="D4">
-        <v>9.757237097612698</v>
+        <v>9.748160781031274</v>
       </c>
       <c r="E4">
         <v>4.53000020980835</v>
       </c>
       <c r="F4">
-        <v>2.758837234832816</v>
+        <v>2.764698878957355</v>
       </c>
       <c r="G4">
         <v>3.539999961853027</v>
       </c>
       <c r="H4">
-        <v>7.437517487311524</v>
+        <v>7.426156816911019</v>
       </c>
       <c r="I4">
-        <v>11.54368357476563</v>
+        <v>11.5395801523673</v>
       </c>
       <c r="J4">
-        <v>4.106166087454103</v>
+        <v>4.113423335456281</v>
       </c>
       <c r="K4">
-        <v>15.56880273804872</v>
+        <v>15.56880084926115</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -28922,31 +28974,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C5">
-        <v>9.632970907938168</v>
+        <v>9.623535419401721</v>
       </c>
       <c r="D5">
-        <v>9.995248794555664</v>
+        <v>9.973197937011719</v>
       </c>
       <c r="E5">
-        <v>7.724711418151855</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="F5">
-        <v>2.822332184101672</v>
+        <v>2.828118060148589</v>
       </c>
       <c r="G5">
         <v>3.579999923706055</v>
       </c>
       <c r="H5">
-        <v>7.596819877624512</v>
+        <v>7.582514762878418</v>
       </c>
       <c r="I5">
-        <v>11.77330756187439</v>
+        <v>11.77102088928223</v>
       </c>
       <c r="J5">
-        <v>4.176487684249878</v>
+        <v>4.188506126403809</v>
       </c>
       <c r="K5">
         <v>15.86186218261719</v>
@@ -28957,31 +29009,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C6">
-        <v>5743660.974719102</v>
+        <v>5761219.36542056</v>
       </c>
       <c r="D6">
-        <v>4286571.5</v>
+        <v>4292644</v>
       </c>
       <c r="E6">
         <v>3419242</v>
       </c>
       <c r="F6">
-        <v>5084454.037315423</v>
+        <v>5096488.761214981</v>
       </c>
       <c r="G6">
         <v>282595</v>
       </c>
       <c r="H6">
-        <v>2547000</v>
+        <v>2549287.5</v>
       </c>
       <c r="I6">
-        <v>7168400</v>
+        <v>7189250</v>
       </c>
       <c r="J6">
-        <v>4621400</v>
+        <v>4639962.5</v>
       </c>
       <c r="K6">
         <v>62444400</v>
@@ -28992,10 +29044,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C7">
-        <v>0.001173315543071161</v>
+        <v>0.001171122429906542</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -29004,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01719880239201144</v>
+        <v>0.0171827809844112</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -29027,10 +29079,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C8">
-        <v>0.003745318352059925</v>
+        <v>0.003738317757009346</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -29039,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1223980122724209</v>
+        <v>0.1222835681031486</v>
       </c>
       <c r="G8">
         <v>0</v>
